--- a/samples/2-Sheets-SA-عينة-فنادق-وشقق-preview.xlsx
+++ b/samples/2-Sheets-SA-عينة-فنادق-وشقق-preview.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1455" uniqueCount="948">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1455" uniqueCount="843">
   <si>
     <t>Name</t>
   </si>
@@ -44,7 +44,7 @@
     <t>الزويرا</t>
   </si>
   <si>
-    <t>موشحات الأندلس</t>
+    <t>موشحات الأندلس...</t>
   </si>
   <si>
     <t>مسكن ليالي</t>
@@ -53,25 +53,25 @@
     <t>دار ود</t>
   </si>
   <si>
-    <t>شقق توام الأحلام</t>
-  </si>
-  <si>
-    <t>نسايم ابها للوحدات السكنية</t>
-  </si>
-  <si>
-    <t>اجنحة مشارف مدن</t>
-  </si>
-  <si>
-    <t>الركائز الهندسية</t>
+    <t>شقق توام الأحل...</t>
+  </si>
+  <si>
+    <t>نسايم ابها للو...</t>
+  </si>
+  <si>
+    <t>اجنحة مشارف مد...</t>
+  </si>
+  <si>
+    <t>الركائز الهندس...</t>
   </si>
   <si>
     <t>شمس الخيال</t>
   </si>
   <si>
-    <t>فندق سما ينبع الفندقية</t>
-  </si>
-  <si>
-    <t>زهرة الجال للوحدات السكنية</t>
+    <t>فندق سما ينبع ...</t>
+  </si>
+  <si>
+    <t>زهرة الجال للو...</t>
   </si>
   <si>
     <t>زائر الشمال</t>
@@ -80,22 +80,22 @@
     <t>أجنحة الدار</t>
   </si>
   <si>
-    <t>فخامة الإرجوانة</t>
-  </si>
-  <si>
-    <t>فندق الرهيبة للاجنحة</t>
-  </si>
-  <si>
-    <t>فندق ارجوان المدينة السلام</t>
-  </si>
-  <si>
-    <t>فرع شركة مجموعة العييري التجارية المحدودة</t>
+    <t>فخامة الإرجوان...</t>
+  </si>
+  <si>
+    <t>فندق الرهيبة ل...</t>
+  </si>
+  <si>
+    <t>فندق ارجوان ال...</t>
+  </si>
+  <si>
+    <t>فرع شركة مجموع...</t>
   </si>
   <si>
     <t>جوهرة المواسم</t>
   </si>
   <si>
-    <t>فرع شركة نسمة داما للإستثمار</t>
+    <t>فرع شركة نسمة ...</t>
   </si>
   <si>
     <t>ايام ليليان</t>
@@ -113,31 +113,31 @@
     <t>ديار روما</t>
   </si>
   <si>
-    <t>النمارق المريحه</t>
-  </si>
-  <si>
-    <t>قصر السحاب للوحدات السكنية</t>
-  </si>
-  <si>
-    <t>مؤسسة نايت للوحدات السكنية</t>
-  </si>
-  <si>
-    <t>فندق شعاع واحة</t>
-  </si>
-  <si>
-    <t>شقق انا الشرق للشقق المفروشة</t>
-  </si>
-  <si>
-    <t>زهرة الحياة للوحدات السكنيه</t>
-  </si>
-  <si>
-    <t>مجموعة سنابل المشعان للوحدات السكنية المفروشة</t>
+    <t>النمارق المريح...</t>
+  </si>
+  <si>
+    <t>قصر السحاب للو...</t>
+  </si>
+  <si>
+    <t>مؤسسة نايت للو...</t>
+  </si>
+  <si>
+    <t>فندق شعاع واحة...</t>
+  </si>
+  <si>
+    <t>شقق انا الشرق ...</t>
+  </si>
+  <si>
+    <t>زهرة الحياة لل...</t>
+  </si>
+  <si>
+    <t>مجموعة سنابل ا...</t>
   </si>
   <si>
     <t>داري و دارك</t>
   </si>
   <si>
-    <t>شقق كل الأيام للوحدات السكنية</t>
+    <t>شقق كل الأيام ...</t>
   </si>
   <si>
     <t>بيت الورود</t>
@@ -155,19 +155,19 @@
     <t>ليالي السعادة</t>
   </si>
   <si>
-    <t>عز الاصالة للوحدات السكنية</t>
+    <t>عز الاصالة للو...</t>
   </si>
   <si>
     <t>الرست ان</t>
   </si>
   <si>
-    <t>روحاء المدينة للوحدات السكنية</t>
-  </si>
-  <si>
-    <t>أجنحة العليا للشقق المفروشة</t>
-  </si>
-  <si>
-    <t>داني للوحدات السكنية المفروشة</t>
+    <t>روحاء المدينة ...</t>
+  </si>
+  <si>
+    <t>أجنحة العليا ل...</t>
+  </si>
+  <si>
+    <t>داني للوحدات ا...</t>
   </si>
   <si>
     <t>قصر الغروب</t>
@@ -176,25 +176,25 @@
     <t>كنان سويت</t>
   </si>
   <si>
-    <t>شقق مساكن سندان للوحدات السكنية</t>
+    <t>شقق مساكن سندا...</t>
   </si>
   <si>
     <t>قطين</t>
   </si>
   <si>
-    <t>ندى الزوار اثنان</t>
-  </si>
-  <si>
-    <t>إركان للوحدات السكنية المفروشة</t>
+    <t>ندى الزوار اثن...</t>
+  </si>
+  <si>
+    <t>إركان للوحدات ...</t>
   </si>
   <si>
     <t>ركن راحتي</t>
   </si>
   <si>
-    <t>قمم اريانا للوحدات السكنيه المفروشه</t>
-  </si>
-  <si>
-    <t>شركة مكارم للوحدات السكنية</t>
+    <t>قمم اريانا للو...</t>
+  </si>
+  <si>
+    <t>شركة مكارم للو...</t>
   </si>
   <si>
     <t>سويس بلو</t>
@@ -203,7 +203,7 @@
     <t>منازل تبوك</t>
   </si>
   <si>
-    <t>شركة بنيان السعودية مساهمة مقفلة  كورت يارد ماريوت</t>
+    <t>شركة بنيان الس...</t>
   </si>
   <si>
     <t>طرابزون</t>
@@ -212,13 +212,13 @@
     <t>نزل خيال</t>
   </si>
   <si>
-    <t>فندق جوهرة سكاكا</t>
-  </si>
-  <si>
-    <t>الركائز للأجنحة المفروشة</t>
-  </si>
-  <si>
-    <t>بيوتات الفخامة للوحدات السكنية المفروشة</t>
+    <t>فندق جوهرة سكا...</t>
+  </si>
+  <si>
+    <t>الركائز للأجنح...</t>
+  </si>
+  <si>
+    <t>بيوتات الفخامة...</t>
   </si>
   <si>
     <t>فندق ارم</t>
@@ -230,13 +230,13 @@
     <t>روضه العقيق</t>
   </si>
   <si>
-    <t>جوهرة قصر الصفوة</t>
-  </si>
-  <si>
-    <t>شقق ركن تاالا للشقق المفروشة</t>
-  </si>
-  <si>
-    <t>دوم للوحدات السكنية المفروشة</t>
+    <t>جوهرة قصر الصف...</t>
+  </si>
+  <si>
+    <t>شقق ركن تاالا ...</t>
+  </si>
+  <si>
+    <t>دوم للوحدات ال...</t>
   </si>
   <si>
     <t>جو الاصاله</t>
@@ -248,22 +248,22 @@
     <t>أصالة النخبه</t>
   </si>
   <si>
-    <t>احلى مكان للوحدات السكنية المفروشة</t>
+    <t>احلى مكان للوح...</t>
   </si>
   <si>
     <t>ركن النظيم</t>
   </si>
   <si>
-    <t>فندق اطلالة الحديقة للشقق الفندقية</t>
-  </si>
-  <si>
-    <t>منصور صالح الجبر</t>
+    <t>فندق اطلالة ال...</t>
+  </si>
+  <si>
+    <t>منصور صالح الج...</t>
   </si>
   <si>
     <t>منازل الحمراء</t>
   </si>
   <si>
-    <t>فندق غيل باوزير</t>
+    <t>فندق غيل باوزي...</t>
   </si>
   <si>
     <t>ربوة الصفوة</t>
@@ -281,7 +281,7 @@
     <t>حلام ساهرة</t>
   </si>
   <si>
-    <t>لمسات الاجنحة للوحدات السكنية</t>
+    <t>لمسات الاجنحة ...</t>
   </si>
   <si>
     <t>مندرين الشمال</t>
@@ -293,10 +293,10 @@
     <t>البستان طيبة</t>
   </si>
   <si>
-    <t>شركة العيسائي للضيافة المحدودة</t>
-  </si>
-  <si>
-    <t>طبيعة الحياة للوحدات السكنية</t>
+    <t>شركة العيسائي ...</t>
+  </si>
+  <si>
+    <t>طبيعة الحياة ل...</t>
   </si>
   <si>
     <t>نزل الصفوة</t>
@@ -308,34 +308,34 @@
     <t>قصر الشوق</t>
   </si>
   <si>
-    <t>شقق علي هادي محمد الشديدي للوحدات السكنية</t>
-  </si>
-  <si>
-    <t>دانة جازان للوحدات السكنيه</t>
+    <t>شقق علي هادي م...</t>
+  </si>
+  <si>
+    <t>دانة جازان للو...</t>
   </si>
   <si>
     <t>كرم النخلة</t>
   </si>
   <si>
-    <t>هوليدي ان بوابة جدة</t>
-  </si>
-  <si>
-    <t>اجنحه تولان للوحدات السكنيه المفروشه</t>
+    <t>هوليدي ان بواب...</t>
+  </si>
+  <si>
+    <t>اجنحه تولان لل...</t>
   </si>
   <si>
     <t>البيت الشرقي</t>
   </si>
   <si>
-    <t>مروج الخليج للوحدات السكنية المفروشة</t>
-  </si>
-  <si>
-    <t>شقق أصول المدينة للوحدات السكنية</t>
+    <t>مروج الخليج لل...</t>
+  </si>
+  <si>
+    <t>شقق أصول المدي...</t>
   </si>
   <si>
     <t>ضوي القمر</t>
   </si>
   <si>
-    <t>رويـــال البيت الذهبى</t>
+    <t>رويـــال البيت...</t>
   </si>
   <si>
     <t>همس ابها</t>
@@ -344,7 +344,7 @@
     <t>AL ZWERA</t>
   </si>
   <si>
-    <t>mWSHEHAT alandlous</t>
+    <t>mWSHEHAT aland...</t>
   </si>
   <si>
     <t>maskan leale</t>
@@ -353,40 +353,40 @@
     <t>Dar Wed</t>
   </si>
   <si>
-    <t>shqaq thoam alhlam</t>
+    <t>shqaq thoam al...</t>
   </si>
   <si>
     <t>Nsaym Abha</t>
   </si>
   <si>
-    <t>Wings of the outskirts of cities</t>
+    <t>Wings of the o...</t>
   </si>
   <si>
     <t>sunillustion</t>
   </si>
   <si>
-    <t>zahrt aljal furnished units</t>
-  </si>
-  <si>
-    <t>NORTH VISITORS FOR HOTEL AND  APARTMENTS</t>
+    <t>zahrt aljal fu...</t>
+  </si>
+  <si>
+    <t>NORTH VISITORS...</t>
   </si>
   <si>
     <t>aldar sweets</t>
   </si>
   <si>
-    <t>Fakhamet Al Ergwana</t>
-  </si>
-  <si>
-    <t>alrahiba lalagnaha</t>
-  </si>
-  <si>
-    <t>aleairy Co. Ltd.</t>
-  </si>
-  <si>
-    <t>Jawhara AlMawasem</t>
-  </si>
-  <si>
-    <t>Nesmat Dama For Investment Co</t>
+    <t>Fakhamet Al Er...</t>
+  </si>
+  <si>
+    <t>alrahiba lalag...</t>
+  </si>
+  <si>
+    <t>aleairy Co. Lt...</t>
+  </si>
+  <si>
+    <t>Jawhara AlMawa...</t>
+  </si>
+  <si>
+    <t>Nesmat Dama Fo...</t>
   </si>
   <si>
     <t>ayam laelyan</t>
@@ -395,7 +395,7 @@
     <t>Dorat Alzaeen</t>
   </si>
   <si>
-    <t>Safwat Alrakubh</t>
+    <t>Safwat Alrakub...</t>
   </si>
   <si>
     <t>almohidb</t>
@@ -404,7 +404,7 @@
     <t>Dyar Roma</t>
   </si>
   <si>
-    <t>Alnamarq comfortable</t>
+    <t>Alnamarq comfo...</t>
   </si>
   <si>
     <t>Qasr ALsahab</t>
@@ -416,10 +416,10 @@
     <t>ANA ALSHARQ</t>
   </si>
   <si>
-    <t>zahrat alhayat</t>
-  </si>
-  <si>
-    <t>Sanabel Al Mishaan Residential Units Group</t>
+    <t>zahrat alhayat...</t>
+  </si>
+  <si>
+    <t>Sanabel Al Mis...</t>
   </si>
   <si>
     <t>dari wa dark</t>
@@ -428,7 +428,7 @@
     <t>bayt alwurud</t>
   </si>
   <si>
-    <t>Qqsr AL Balsam</t>
+    <t>Qqsr AL Balsam...</t>
   </si>
   <si>
     <t>fanAlfakamah</t>
@@ -437,7 +437,7 @@
     <t>Maas house</t>
   </si>
   <si>
-    <t>layali alsaeada</t>
+    <t>layali alsaead...</t>
   </si>
   <si>
     <t>Az ALASALA</t>
@@ -446,13 +446,13 @@
     <t>Al Rest Inn</t>
   </si>
   <si>
-    <t>Roha ALMadinah for Furnished Apartments</t>
-  </si>
-  <si>
-    <t>Olayia wings for furnished apartment</t>
-  </si>
-  <si>
-    <t>Dani Furnished Residential Units</t>
+    <t>Roha ALMadinah...</t>
+  </si>
+  <si>
+    <t>Olayia wings f...</t>
+  </si>
+  <si>
+    <t>Dani Furnished...</t>
   </si>
   <si>
     <t>sunset suites</t>
@@ -461,16 +461,16 @@
     <t>kinan sweet</t>
   </si>
   <si>
-    <t>Masaken Sendan Furnished Residentia Units</t>
+    <t>Masaken Sendan...</t>
   </si>
   <si>
     <t>Qatayn</t>
   </si>
   <si>
-    <t>Nada Alzwar Two</t>
-  </si>
-  <si>
-    <t>Arkan Furnished Apartment Units</t>
+    <t>Nada Alzwar Tw...</t>
+  </si>
+  <si>
+    <t>Arkan Furnishe...</t>
   </si>
   <si>
     <t>rokn rahaty</t>
@@ -485,7 +485,7 @@
     <t>MANZL TABUK</t>
   </si>
   <si>
-    <t>Saudi Bunyan Company Courtyard Marriott</t>
+    <t>Saudi Bunyan C...</t>
   </si>
   <si>
     <t>Tarabzon</t>
@@ -494,13 +494,13 @@
     <t>Khayal inn</t>
   </si>
   <si>
-    <t>Jawhara Sakaka Hotel</t>
-  </si>
-  <si>
-    <t>alrakez for suites</t>
-  </si>
-  <si>
-    <t>Buyutat Alfakhamah Furnished Residential Units</t>
+    <t>Jawhara Sakaka...</t>
+  </si>
+  <si>
+    <t>alrakez for su...</t>
+  </si>
+  <si>
+    <t>Buyutat Alfakh...</t>
   </si>
   <si>
     <t>eram hotel</t>
@@ -512,7 +512,7 @@
     <t>Rawda Al Aqiq</t>
   </si>
   <si>
-    <t>Jawhrat Qasr alsfwah</t>
+    <t>Jawhrat Qasr a...</t>
   </si>
   <si>
     <t>Rokn Tala</t>
@@ -527,7 +527,7 @@
     <t>beaurivage</t>
   </si>
   <si>
-    <t>The authenticity of the elite</t>
+    <t>The authentici...</t>
   </si>
   <si>
     <t>AHLA MAKAN</t>
@@ -536,16 +536,16 @@
     <t>rken alndem</t>
   </si>
   <si>
-    <t>mansor saleh aljabr</t>
+    <t>mansor saleh a...</t>
   </si>
   <si>
     <t>RED HOUSES</t>
   </si>
   <si>
-    <t>Gail Bawazeer Hotel</t>
-  </si>
-  <si>
-    <t>Rabot Al Safwa</t>
+    <t>Gail Bawazeer ...</t>
+  </si>
+  <si>
+    <t>Rabot Al Safwa...</t>
   </si>
   <si>
     <t>Alberdhun</t>
@@ -563,16 +563,16 @@
     <t>lamast</t>
   </si>
   <si>
-    <t>Mandarin Alshamal</t>
-  </si>
-  <si>
-    <t>Dorat Albustan</t>
+    <t>Mandarin Alsha...</t>
+  </si>
+  <si>
+    <t>Dorat Albustan...</t>
   </si>
   <si>
     <t>Albustan Tiba</t>
   </si>
   <si>
-    <t>Nature of life of residential units</t>
+    <t>Nature of life...</t>
   </si>
   <si>
     <t>nuzl alsafwa</t>
@@ -581,7 +581,7 @@
     <t>qasr ahshooq</t>
   </si>
   <si>
-    <t>Ali Hadi Mohammed Al Shudidi Apartments</t>
+    <t>Ali Hadi Moham...</t>
   </si>
   <si>
     <t>danah gazan</t>
@@ -590,7 +590,7 @@
     <t>KARM ALNAKLAH</t>
   </si>
   <si>
-    <t>Holiday Inn Jeddah Gateway</t>
+    <t>Holiday Inn Je...</t>
   </si>
   <si>
     <t>towlan suites</t>
@@ -599,16 +599,16 @@
     <t>House east</t>
   </si>
   <si>
-    <t>morouge  al khaleej  furnished unit</t>
-  </si>
-  <si>
-    <t>osool almadinah</t>
+    <t>morouge  al kh...</t>
+  </si>
+  <si>
+    <t>osool almadina...</t>
   </si>
   <si>
     <t>Moon Light</t>
   </si>
   <si>
-    <t>Royal Golden House</t>
+    <t>Royal Golden H...</t>
   </si>
   <si>
     <t>Hums Abha</t>
@@ -635,7 +635,7 @@
     <t>Aljowf</t>
   </si>
   <si>
-    <t>Almadinah Almonawara</t>
+    <t>Almadinah Almo...</t>
   </si>
   <si>
     <t>Tabuk</t>
@@ -656,7 +656,7 @@
     <t>Alkhobar</t>
   </si>
   <si>
-    <t>Furnished Apartment</t>
+    <t>Furnished Apar...</t>
   </si>
   <si>
     <t>Hotel</t>
@@ -941,298 +941,298 @@
     <t>+966592911555</t>
   </si>
   <si>
-    <t>w0881@hotmail.com</t>
-  </si>
-  <si>
-    <t>mwf67@hotmail.com</t>
-  </si>
-  <si>
-    <t>sauud11@hotmail.com</t>
-  </si>
-  <si>
-    <t>daar.weed@gmail.com</t>
-  </si>
-  <si>
-    <t>saeed525252@hotmail.com</t>
-  </si>
-  <si>
-    <t>alshehri1135@gmail.com</t>
-  </si>
-  <si>
-    <t>koban2004@hotmail.com</t>
-  </si>
-  <si>
-    <t>alamer121988@yahoo.com</t>
-  </si>
-  <si>
-    <t>t12@hotmail.com</t>
-  </si>
-  <si>
-    <t>sales@rosalinahotel.com</t>
-  </si>
-  <si>
-    <t>zahrataljal@gmail.com</t>
-  </si>
-  <si>
-    <t>bahgeteljouf@gmail.com</t>
-  </si>
-  <si>
-    <t>alghamdi9@yahoo.com</t>
-  </si>
-  <si>
-    <t>kym0055@hotmail.com</t>
-  </si>
-  <si>
-    <t>ass-ass4@hotmail.com</t>
-  </si>
-  <si>
-    <t>moliky93@gmail.com</t>
-  </si>
-  <si>
-    <t>ahmedsamir152847@gmail.com</t>
-  </si>
-  <si>
-    <t>sokar911@gmail.com</t>
-  </si>
-  <si>
-    <t>almosa7575@hotmail.com</t>
-  </si>
-  <si>
-    <t>a063839888@hotmail.com</t>
-  </si>
-  <si>
-    <t>abuayman1954@hotmail.com</t>
-  </si>
-  <si>
-    <t>yahya.m@live.co.uk</t>
-  </si>
-  <si>
-    <t>mohmed.ahmed292@gmail.com</t>
-  </si>
-  <si>
-    <t>h.yafi1380@gmail.com</t>
-  </si>
-  <si>
-    <t>a.alluhaidan@yahoo.com</t>
-  </si>
-  <si>
-    <t>alshagroud@yahoo.com</t>
-  </si>
-  <si>
-    <t>khldhalabi@gmail.com</t>
-  </si>
-  <si>
-    <t>std_1203@outlook.sa</t>
-  </si>
-  <si>
-    <t>midosea.romaysaa@gmail.com</t>
-  </si>
-  <si>
-    <t>almlglg@hotmail.com</t>
-  </si>
-  <si>
-    <t>k.sanabel@hotmail.com</t>
-  </si>
-  <si>
-    <t>mohammed-7575@hotmail.com</t>
-  </si>
-  <si>
-    <t>m.kuleib@sactsa.com</t>
-  </si>
-  <si>
-    <t>balsamgroup123@gmail.com</t>
-  </si>
-  <si>
-    <t>no.rab33@hotmail.com</t>
-  </si>
-  <si>
-    <t>m.zehair@gmail.com</t>
-  </si>
-  <si>
-    <t>llao66009@gmail.com</t>
-  </si>
-  <si>
-    <t>tala9191@gmail.com</t>
-  </si>
-  <si>
-    <t>h.alharethi@hotmail.com</t>
-  </si>
-  <si>
-    <t>amb250@hotmail.com</t>
-  </si>
-  <si>
-    <t>olayasuites1@gmail.com</t>
-  </si>
-  <si>
-    <t>tameradeem11@yahoo.com</t>
-  </si>
-  <si>
-    <t>mr-tt@hotmail.com</t>
-  </si>
-  <si>
-    <t>lamyk1428@icloud.com</t>
-  </si>
-  <si>
-    <t>alsalehsaleh@yahoo.com</t>
-  </si>
-  <si>
-    <t>alreb3@gmail.com</t>
-  </si>
-  <si>
-    <t>h.t.est@hotmail.com</t>
-  </si>
-  <si>
-    <t>arkansuites@hotmail.com</t>
-  </si>
-  <si>
-    <t>moh.alghtani@hotmail.com</t>
-  </si>
-  <si>
-    <t>naser778899@yahoo.com</t>
+    <t>w0881@hotmail....</t>
+  </si>
+  <si>
+    <t>mwf67@hotmail....</t>
+  </si>
+  <si>
+    <t>sauud11@hotmai...</t>
+  </si>
+  <si>
+    <t>daar.weed@gmai...</t>
+  </si>
+  <si>
+    <t>saeed525252@ho...</t>
+  </si>
+  <si>
+    <t>alshehri1135@g...</t>
+  </si>
+  <si>
+    <t>koban2004@hotm...</t>
+  </si>
+  <si>
+    <t>alamer121988@y...</t>
+  </si>
+  <si>
+    <t>t12@hotmail.co...</t>
+  </si>
+  <si>
+    <t>sales@rosalina...</t>
+  </si>
+  <si>
+    <t>zahrataljal@gm...</t>
+  </si>
+  <si>
+    <t>bahgeteljouf@g...</t>
+  </si>
+  <si>
+    <t>alghamdi9@yaho...</t>
+  </si>
+  <si>
+    <t>kym0055@hotmai...</t>
+  </si>
+  <si>
+    <t>ass-ass4@hotma...</t>
+  </si>
+  <si>
+    <t>moliky93@gmail...</t>
+  </si>
+  <si>
+    <t>ahmedsamir1528...</t>
+  </si>
+  <si>
+    <t>sokar911@gmail...</t>
+  </si>
+  <si>
+    <t>almosa7575@hot...</t>
+  </si>
+  <si>
+    <t>a063839888@hot...</t>
+  </si>
+  <si>
+    <t>abuayman1954@h...</t>
+  </si>
+  <si>
+    <t>yahya.m@live.c...</t>
+  </si>
+  <si>
+    <t>mohmed.ahmed29...</t>
+  </si>
+  <si>
+    <t>h.yafi1380@gma...</t>
+  </si>
+  <si>
+    <t>a.alluhaidan@y...</t>
+  </si>
+  <si>
+    <t>alshagroud@yah...</t>
+  </si>
+  <si>
+    <t>khldhalabi@gma...</t>
+  </si>
+  <si>
+    <t>std_1203@outlo...</t>
+  </si>
+  <si>
+    <t>midosea.romays...</t>
+  </si>
+  <si>
+    <t>almlglg@hotmai...</t>
+  </si>
+  <si>
+    <t>k.sanabel@hotm...</t>
+  </si>
+  <si>
+    <t>mohammed-7575@...</t>
+  </si>
+  <si>
+    <t>m.kuleib@sacts...</t>
+  </si>
+  <si>
+    <t>balsamgroup123...</t>
+  </si>
+  <si>
+    <t>no.rab33@hotma...</t>
+  </si>
+  <si>
+    <t>m.zehair@gmail...</t>
+  </si>
+  <si>
+    <t>llao66009@gmai...</t>
+  </si>
+  <si>
+    <t>tala9191@gmail...</t>
+  </si>
+  <si>
+    <t>h.alharethi@ho...</t>
+  </si>
+  <si>
+    <t>amb250@hotmail...</t>
+  </si>
+  <si>
+    <t>olayasuites1@g...</t>
+  </si>
+  <si>
+    <t>tameradeem11@y...</t>
+  </si>
+  <si>
+    <t>mr-tt@hotmail....</t>
+  </si>
+  <si>
+    <t>lamyk1428@iclo...</t>
+  </si>
+  <si>
+    <t>alsalehsaleh@y...</t>
+  </si>
+  <si>
+    <t>alreb3@gmail.c...</t>
+  </si>
+  <si>
+    <t>h.t.est@hotmai...</t>
+  </si>
+  <si>
+    <t>arkansuites@ho...</t>
+  </si>
+  <si>
+    <t>moh.alghtani@h...</t>
+  </si>
+  <si>
+    <t>naser778899@ya...</t>
   </si>
   <si>
     <t>gr@dyafa.com</t>
   </si>
   <si>
-    <t>swissbluejazan@gmail.com</t>
-  </si>
-  <si>
-    <t>fahad_alatawi@hotmail.com</t>
-  </si>
-  <si>
-    <t>jalal.ahmed@cy-jazan.com</t>
-  </si>
-  <si>
-    <t>ssubie@stc.com.sa</t>
-  </si>
-  <si>
-    <t>alettefak@yahoo.com</t>
-  </si>
-  <si>
-    <t>atb_vip@yahoo.com</t>
-  </si>
-  <si>
-    <t>alrkaez.hotel@gmail.com</t>
-  </si>
-  <si>
-    <t>xp-10_61@hotmail.com</t>
-  </si>
-  <si>
-    <t>alsaif-com@hotmail.com</t>
-  </si>
-  <si>
-    <t>almoqhem555@hotmail.com</t>
-  </si>
-  <si>
-    <t>kh_444@hotmail.com</t>
-  </si>
-  <si>
-    <t>habshan000@hotmail.com</t>
-  </si>
-  <si>
-    <t>soud1717@hotmail.com</t>
-  </si>
-  <si>
-    <t>domehotels1@gmail.com</t>
-  </si>
-  <si>
-    <t>salman4.4.4@hotmail.com</t>
-  </si>
-  <si>
-    <t>m.alhomayedgroup@gmail.com</t>
-  </si>
-  <si>
-    <t>rageh571@gmail.com</t>
-  </si>
-  <si>
-    <t>bbbob73@gmail.com</t>
-  </si>
-  <si>
-    <t>fafs2013@hotmail.com</t>
-  </si>
-  <si>
-    <t>tabuk2000@gmail.com</t>
-  </si>
-  <si>
-    <t>opalhotels@hotmail.com</t>
-  </si>
-  <si>
-    <t>abo-kaled-a@hotmail.com</t>
-  </si>
-  <si>
-    <t>feakard@gmail.com</t>
-  </si>
-  <si>
-    <t>moath@alotair.com</t>
-  </si>
-  <si>
-    <t>omaromar45@yahoo.com</t>
-  </si>
-  <si>
-    <t>keek.1111@hotmail.com</t>
-  </si>
-  <si>
-    <t>sa2014mer@hotmail.com</t>
-  </si>
-  <si>
-    <t>ac_mamdoh666@yahoo.com</t>
-  </si>
-  <si>
-    <t>lamasathotelgroup@gmail.com</t>
-  </si>
-  <si>
-    <t>info@mandarinsuites.com</t>
-  </si>
-  <si>
-    <t>bustan111@yahoo.com</t>
-  </si>
-  <si>
-    <t>a.sulami@ahc-alesayi.com</t>
-  </si>
-  <si>
-    <t>vs6008@hotmail.com</t>
-  </si>
-  <si>
-    <t>alalal-8@hotmail.com</t>
-  </si>
-  <si>
-    <t>saeed15151@hotmail.com</t>
-  </si>
-  <si>
-    <t>qasr-ahshooq@hotmail.com</t>
-  </si>
-  <si>
-    <t>aserimohamed922@gmail.com</t>
-  </si>
-  <si>
-    <t>saa-d2011@hotmail.com</t>
-  </si>
-  <si>
-    <t>karam_alnakhla.hotel@hotmail.com</t>
-  </si>
-  <si>
-    <t>m.almansour@alhokair.com</t>
-  </si>
-  <si>
-    <t>abdetawab@towlan.com</t>
-  </si>
-  <si>
-    <t>mn21112008@yahoo.com</t>
-  </si>
-  <si>
-    <t>sam59us2000@yahoo.com</t>
-  </si>
-  <si>
-    <t>aaaj377@hotmail.com</t>
-  </si>
-  <si>
-    <t>aaansh1401@hotmail.com</t>
-  </si>
-  <si>
-    <t>naif@golden-house.net</t>
-  </si>
-  <si>
-    <t>zx2230233@gmail.com</t>
+    <t>swissbluejazan...</t>
+  </si>
+  <si>
+    <t>fahad_alatawi@...</t>
+  </si>
+  <si>
+    <t>jalal.ahmed@cy...</t>
+  </si>
+  <si>
+    <t>ssubie@stc.com...</t>
+  </si>
+  <si>
+    <t>alettefak@yaho...</t>
+  </si>
+  <si>
+    <t>atb_vip@yahoo....</t>
+  </si>
+  <si>
+    <t>alrkaez.hotel@...</t>
+  </si>
+  <si>
+    <t>xp-10_61@hotma...</t>
+  </si>
+  <si>
+    <t>alsaif-com@hot...</t>
+  </si>
+  <si>
+    <t>almoqhem555@ho...</t>
+  </si>
+  <si>
+    <t>kh_444@hotmail...</t>
+  </si>
+  <si>
+    <t>habshan000@hot...</t>
+  </si>
+  <si>
+    <t>soud1717@hotma...</t>
+  </si>
+  <si>
+    <t>domehotels1@gm...</t>
+  </si>
+  <si>
+    <t>salman4.4.4@ho...</t>
+  </si>
+  <si>
+    <t>m.alhomayedgro...</t>
+  </si>
+  <si>
+    <t>rageh571@gmail...</t>
+  </si>
+  <si>
+    <t>bbbob73@gmail....</t>
+  </si>
+  <si>
+    <t>fafs2013@hotma...</t>
+  </si>
+  <si>
+    <t>tabuk2000@gmai...</t>
+  </si>
+  <si>
+    <t>opalhotels@hot...</t>
+  </si>
+  <si>
+    <t>abo-kaled-a@ho...</t>
+  </si>
+  <si>
+    <t>feakard@gmail....</t>
+  </si>
+  <si>
+    <t>moath@alotair....</t>
+  </si>
+  <si>
+    <t>omaromar45@yah...</t>
+  </si>
+  <si>
+    <t>keek.1111@hotm...</t>
+  </si>
+  <si>
+    <t>sa2014mer@hotm...</t>
+  </si>
+  <si>
+    <t>ac_mamdoh666@y...</t>
+  </si>
+  <si>
+    <t>lamasathotelgr...</t>
+  </si>
+  <si>
+    <t>info@mandarins...</t>
+  </si>
+  <si>
+    <t>bustan111@yaho...</t>
+  </si>
+  <si>
+    <t>a.sulami@ahc-a...</t>
+  </si>
+  <si>
+    <t>vs6008@hotmail...</t>
+  </si>
+  <si>
+    <t>alalal-8@hotma...</t>
+  </si>
+  <si>
+    <t>saeed15151@hot...</t>
+  </si>
+  <si>
+    <t>qasr-ahshooq@h...</t>
+  </si>
+  <si>
+    <t>aserimohamed92...</t>
+  </si>
+  <si>
+    <t>saa-d2011@hotm...</t>
+  </si>
+  <si>
+    <t>karam_alnakhla...</t>
+  </si>
+  <si>
+    <t>m.almansour@al...</t>
+  </si>
+  <si>
+    <t>abdetawab@towl...</t>
+  </si>
+  <si>
+    <t>mn21112008@yah...</t>
+  </si>
+  <si>
+    <t>sam59us2000@ya...</t>
+  </si>
+  <si>
+    <t>aaaj377@hotmai...</t>
+  </si>
+  <si>
+    <t>aaansh1401@hot...</t>
+  </si>
+  <si>
+    <t>naif@golden-ho...</t>
+  </si>
+  <si>
+    <t>zx2230233@gmai...</t>
   </si>
   <si>
     <t>Fourth Degree</t>
@@ -1433,304 +1433,7 @@
     <t>Website</t>
   </si>
   <si>
-    <t>https://www.google.com/maps/place/%D9%85%D9%86%D8%AA%D8%AC%D8%B9+%D8%A3%D9%88%D8%B1%D8%A7%D9%81%E2%80%AD/data=!4m7!3m6!1s0x3e2f175157866c55:0xda5412c362f49ccb!8m2!3d24.5557704!4d46.5883409!16s%2Fg%2F11cn06l2wb!19sChIJVWyGV1EXLz4Ry5z0YsMSVNo?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%81%D9%86%D8%AF%D9%82+%D8%A7%D9%84%D9%85%D8%B4%D8%B9%D8%A7%D9%86%E2%80%AD/data=!4m10!3m9!1s0x15761778e4cdec47:0x72a24013bb625558!5m2!4m1!1i2!8m2!3d27.3837451!4d41.5590782!16s%2Fg%2F12vsrfp7b!19sChIJR-zN5HgXdhURWFViuxNAonI?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%A3%D9%85%D8%A7%D9%83%D9%86+%D9%85%D9%81%D8%B1%D9%88%D8%B4%D8%A9%28+%D8%AF%D8%AE%D9%88%D9%84+%D8%B0%D9%83%D9%8A+%29%E2%80%AD/data=!4m7!3m6!1s0x15c20d3e649d2127:0x468cf6096e91a4d8!8m2!3d21.2639738!4d39.8289528!16s%2Fg%2F11hzf868vs!19sChIJJyGdZD4NwhUR2KSRbgn2jEY?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D9%86%D8%AA%D8%AC%D8%B9+%D9%88%D8%A7%D8%B3%D8%AA%D8%B1%D8%A7%D8%AD%D8%A9+%D9%85%D9%83%D8%A7%D8%B1%D9%85%E2%80%AD/data=!4m7!3m6!1s0x3e07b64000000003:0xb3f71b2232618cce!8m2!3d17.4975929!4d47.076308!16s%2Fg%2F11f0_bnjmk!19sChIJAwAAAEC2Bz4RzoxhMiIb97M?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%AC%D9%85%D9%88%D8%B9%D8%A9+%D8%A7%D9%84%D9%81%D9%8A%D8%B5%D9%84%E2%80%AD/data=!4m7!3m6!1s0x15c205c1b67674c1:0x2912797c3bd77026!8m2!3d21.3639496!4d39.8813764!16s%2Fg%2F11f4l97756!19sChIJwXR2tsEFwhURJnDXO3x5Eik?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D9%86%D8%AA%D8%AC%D8%B9+%D9%81%D9%86%D8%B3%D9%8A%D8%A7%E2%80%AD/data=!4m7!3m6!1s0x15e9f5310311f9a7:0x8cfbaa377ceef784!8m2!3d21.353912!4d40.3014468!16s%2Fg%2F11c54dzj2p!19sChIJp_kRAzH16RURhPfufDeq-4w?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Green+Leaf+Hotel+%D9%81%D9%86%D8%AF%D9%82+%D8%AC%D8%B1%D9%8A%D9%86+%D9%84%D9%8A%D9%81%E2%80%AD/data=!4m10!3m9!1s0x15c3d0975029b967:0x21e5edf946c70e1f!5m2!4m1!1i2!8m2!3d21.5990449!4d39.165557!16s%2Fg%2F11c75w2dld!19sChIJZ7kpUJfQwxURHw7HRvnt5SE?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%A7%D8%B3%D8%AA%D8%B1%D8%A7%D8%AD%D8%A9+%D8%B9%D8%A7%D9%84%D9%8A%D9%87+%D8%A7%D9%84%D9%85%D8%AF%D9%8A%D9%86%D9%87%E2%80%AD/data=!4m7!3m6!1s0x15bdc13795ce16e9:0xf3a69d365b03c342!8m2!3d24.4052641!4d39.6077784!16s%2Fg%2F11gk_vv56y!19sChIJ6RbOlTfBvRURQsMDWzadpvM?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%A7%D9%84%D8%B9%D9%8A%D9%8A%D8%B1%D9%8A+%D9%84%D9%84%D8%B4%D9%82%D9%82+%D8%A7%D9%84%D9%85%D8%AE%D8%AF%D9%88%D9%85%D9%87%E2%80%AD/data=!4m7!3m6!1s0x3e49fc35f1b93a09:0x972ad0444d04b36d!8m2!3d26.441727!4d50.064077!16s%2Fg%2F11c53bnb9v!19sChIJCTq58TX8ST4RbbMETUTQKpc?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%A7%D8%B3%D8%AA%D8%B1%D8%A7%D8%AD%D9%87+%D8%A7%D9%84%D8%AE%D9%8A%D8%A7%D9%84%E2%80%AD/data=!4m7!3m6!1s0x3e2544ce9ed4019b:0x53197cd56b8d6e22!8m2!3d24.1732427!4d47.2400415!16s%2Fg%2F1pp2x6rbl!19sChIJmwHUns5EJT4RIm6Na9V8GVM?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%A7%D9%83%D8%A7%D8%A8%D8%B1+%D9%84%D9%84%D9%88%D8%AD%D8%AF%D8%A7%D8%AA+%D8%A7%D9%84%D8%B3%D9%83%D9%86%D9%8A%D9%87+%D8%A7%D9%84%D9%85%D9%81%D8%B1%D9%88%D8%B4%D9%87%E2%80%AD/data=!4m7!3m6!1s0x3e2f0003c6806039:0xc9563dd1bb436c80!8m2!3d24.7786447!4d46.8107557!16s%2Fg%2F11bzxxc51v!19sChIJOWCAxgMALz4RgGxDu9E9Vsk?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%A7%D9%84%D8%A8%D8%B3%D8%AA%D8%A7%D9%86%E2%80%AD/data=!4m7!3m6!1s0x3e379727b72dd9ad:0x842be7b05388b69!8m2!3d25.3834711!4d49.605229!16s%2Fg%2F11rc41tm1v!19sChIJrdkttyeXNz4RaYs4BXu-Qgg?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%81%D9%86%D8%AF%D9%82+%D8%A7%D9%84%D8%AD%D9%85%D8%A7%D8%AF%E2%80%AD/data=!4m10!3m9!1s0x15c3d096167708cf:0x6ce01aa04b65715b!5m2!4m1!1i2!8m2!3d21.6020076!4d39.1689123!16s%2Fg%2F11c1xq6_8y!19sChIJzwh3FpbQwxURW3FlS6Aa4Gw?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D9%83%D8%A9+%D8%A7%D9%84%D9%85%D9%83%D8%B1%D9%85%D8%A9+%D8%AD%D9%8A+%D8%A7%D9%84%D9%85%D8%B3%D9%81%D9%84%D8%A9+%D8%B4%D8%A7%D8%B1%D8%B9+%D8%A5%D8%A8%D8%B1%D8%A7%D9%87%D9%8A%D9%85+%D8%AE%D9%84%D9%8A%D9%84%E2%80%AD/data=!4m7!3m6!1s0x15c205b5469abaeb:0x72c889ef09375fa1!8m2!3d21.4131893!4d39.82221!16s%2Fg%2F11t86400pf!19sChIJ67qaRrUFwhURoV83Ce-JyHI?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%81%D9%86%D8%AF%D9%82+%D9%84%D9%88+%D8%A8%D8%A7%D8%B1%D9%83+%D9%83%D9%88%D9%86%D9%83%D9%88%D8%B1%D8%AF%E2%80%AD/data=!4m10!3m9!1s0x3e2ac638cab9dc57:0xd7ffa4e262d025ca!5m2!4m1!1i2!8m2!3d25.8960689!4d45.3508467!16s%2Fg%2F11d_8c_7q_!19sChIJV9y5yjjGKj4RyiXQYuKk_9c?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%81%D9%86%D8%AF%D9%82+%D8%AC%D8%AF%D8%A9+1%E2%80%AD/data=!4m7!3m6!1s0x15c3cf13ee455933:0xed90fdcabb4ae214!8m2!3d21.5149192!4d39.1601782!16s%2Fg%2F11qh7b0shr!19sChIJM1lF7hPPwxURFOJKu8r9kO0?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%AF%D8%A7%D8%B1+%D8%B3%D9%8F%D8%A8%D9%8E%D8%A7%D8%AA+%D9%84%D9%84%D8%B4%D9%82%D9%82+%D8%A7%D9%84%D9%85%D9%81%D8%B1%D9%88%D8%B4%D9%87%E2%80%AD/data=!4m7!3m6!1s0x3e2f007cd1f7ec4b:0xe3e3a38736f9f642!8m2!3d24.7596329!4d46.8158915!16s%2Fg%2F11gdlyy6nv!19sChIJS-z30XwALz4RQvb5Noej4-M?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D9%86%D8%AA%D8%AC%D8%B9+%D8%A7%D9%84%D9%81%D8%B1%D8%AF%D9%88%D8%B3+%D8%A8%D8%A7%D9%84%D9%85%D8%B7%D9%8A%D8%B1%D9%81%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x3e37bcf8150ddf27:0x611d9b4f99a4cb56!8m2!3d25.4792172!4d49.5675704!16s%2Fg%2F11c5fzr_mz!19sChIJJ98NFfi8Nz4RVsukmU-bHWE?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B4%D8%A7%D9%84%D9%8A%D9%87%D8%A7%D8%AA+%D9%88+%D8%A8%D8%AD%D9%8A%D8%B1%D8%A9+%D8%A7%D9%84%D8%AE%D8%B2%D8%A7%D9%85%D9%89+%D8%A7%D9%84%D8%AA%D8%B1%D9%81%D9%8A%D9%87%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x3e2efec98712dd2d:0xe575fba2771c9b25!8m2!3d24.8488814!4d46.7688155!16s%2Fg%2F11b7m9j758!19sChIJLd0Sh8n-Lj4RJZscd6L7deU?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B4%D8%A7%D9%84%D9%8A%D8%A9+%D9%87%D9%86%D8%A7%D9%8A+%D9%84%D9%84%D9%85%D9%86%D8%A7%D8%B3%D8%A8%D8%A7%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x15c235c384a8da39:0x796d78897add092c!8m2!3d21.406047!4d39.3226023!16s%2Fg%2F11fmw9bjh6!19sChIJOdqohMM1whURLAndeol4bXk?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%81%D9%86%D8%AF%D9%82+%D9%88%D9%83%D9%86%E2%80%AD/data=!4m10!3m9!1s0x15bdbf86fd369023:0xd8da3d796203404d!5m2!4m1!1i2!8m2!3d24.4333993!4d39.6174761!16s%2Fg%2F12nvb2xzv!19sChIJI5A2_Ya_vRURTUADYnk92tg?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%A7%D9%84%D8%AA%D8%A7%D8%AC+%D8%B3%D9%88%D9%8A%D8%AA+%D9%84%D9%84%D8%A3%D8%AC%D9%86%D8%AD%D8%A9+%D8%A7%D9%84%D9%81%D9%86%D8%AF%D9%82%D9%8A%D9%87%E2%80%AD/data=!4m10!3m9!1s0x1572bbdb633259b5:0xbe4f3fa0c20c016d!5m2!4m1!1i2!8m2!3d29.9664251!4d40.201096!16s%2Fg%2F11c1xqhqs_!19sChIJtVkyY9u7chURbQEMwqA_T74?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%A7%D8%B3%D8%AA%D8%B1%D8%A7%D8%AD%D8%A9+%D8%A7%D9%84%D8%B1%D9%8A%D9%81%E2%80%AD/data=!4m7!3m6!1s0x150d2e6150059e1f:0xb2c84dfc5e67af7e!8m2!3d29.8073573!4d39.8830324!16s%2Fg%2F11c1twnb99!19sChIJH54FUGEuDRURfq9nXvxNyLI?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B4%D8%A7%D9%84%D9%8A%D9%87%D8%A7%D8%AA+%D8%B3%D8%A7%D8%B1%D8%A9+%D9%84%D9%84%D8%A5%D9%8A%D8%AC%D8%A7%D8%B1+%D8%A7%D9%84%D9%8A%D9%88%D9%85%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x3e2eeed717e98005:0xa1b4c4951bd9015d!8m2!3d24.9118314!4d46.6012429!16s%2Fg%2F11g6xw633h!19sChIJBYDpF9fuLj4RXQHZG5XEtKE?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%AE%D9%8A%D9%85+%D9%86%D8%A7%D8%B5%D8%B1+%D8%B3%D8%B9%D9%88%D8%AF+%D8%A8%D9%88+%D9%8A%D8%A7%D8%B3%D8%B1%E2%80%AD/data=!4m7!3m6!1s0x3e35e3302bbfa08b:0x1a023c2e20a5f180!8m2!3d26.5334316!4d49.8364905!16s%2Fg%2F11fpmv84pb!19sChIJi6C_KzDjNT4RgPGlIC48Aho?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%AF%D8%A7%D8%B1+%D8%A7%D9%84%D9%87%D8%AF%D9%89+1%E2%80%AD/data=!4m7!3m6!1s0x15c21b4163287dab:0xd9ae2f888ae3bd42!8m2!3d21.4301145!4d39.7993245!16s%2Fg%2F1z44s283m!19sChIJq30oY0EbwhURQr3jiogvrtk?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B4%D8%A7%D9%84%D9%8A%D9%87+%D9%81%D9%8A%D9%84%D8%A7+%D8%A7%D9%84%D9%8A%D8%A7%D8%B3%D9%85%D9%8A%D9%86%E2%80%AD/data=!4m7!3m6!1s0x1576455e0564afe7:0x41d2e1bf7cc56a0a!8m2!3d27.5940117!4d41.713511!16s%2Fg%2F11pzrqr168!19sChIJ569kBV5FdhURCmrFfL_h0kE?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B4%D8%A7%D9%84%D9%8A%D9%87+%D8%B2%D9%87%D8%B1%E2%80%AD/data=!4m10!3m9!1s0x3e37955ff4b7afb7:0x699c6bc936bd355e!5m2!4m1!1i2!8m2!3d25.3868163!4d49.6237984!16s%2Fg%2F11y428qs9v!19sChIJt6-39F-VNz4RXjW9NslrnGk?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D9%86%D8%AA%D8%AC%D8%B9+%D8%A7%D9%84%D8%AC%D9%86%D8%A7%D9%86+%28%D9%85%D9%86%D8%AA%D8%AC%D8%B9+%D8%AE%D8%A7%D8%B5%29%E2%80%AD/data=!4m7!3m6!1s0x3e35f10f5d01cdc7:0x13a4c5820eb9a93d!8m2!3d26.6918723!4d49.9020363!16s%2Fg%2F11clgnzbd9!19sChIJx80BXQ_xNT4RPam5DoLFpBM?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%81%D9%86%D8%AF%D9%82+%D9%85%D9%88%DA%A4%D9%86%D8%A8%D9%8A%D9%83+%D8%AC%D8%AF%D8%A9+%D8%A7%D9%84%D8%AA%D8%AD%D9%84%D9%8A%D8%A9%E2%80%AD/data=!4m10!3m9!1s0x15c3d00048f45ff9:0x3f20898ec57f1c66!5m2!4m1!1i2!8m2!3d21.5479073!4d39.156472!16s%2Fg%2F11g70x11_z!19sChIJ-V_0SADQwxURZhx_xY6JID8?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B4%D8%A7%D9%84%D9%8A%D9%87+%D9%88%D8%B1%D8%AF%E2%80%AD/data=!4m7!3m6!1s0x15ea2509c26b0c3b:0xc43142303435332d!8m2!3d21.4362954!4d40.422591!16s%2Fg%2F11rkjc5f6q!19sChIJOwxrwgkl6hURLTM1NDBCMcQ?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%81%D9%86%D8%AF%D9%82+%D8%A7%D9%84%D9%85%D9%88%D8%AD%D8%AF%D9%8A%D9%86+%D8%A7%D9%84%D9%85%D8%AD%D8%A8%D8%B3%E2%80%AD/data=!4m10!3m9!1s0x15c205e7ff810da5:0xfb64015eac2515f3!5m2!4m1!1i2!8m2!3d21.4208091!4d39.8470759!16s%2Fg%2F11t1h1n227!19sChIJpQ2B_-cFwhUR8xUlrF4BZPs?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B4%D8%A7%D9%84%D9%8A%D9%87+%D9%84%D9%88%D9%85%D9%8A%D9%86%D9%88%D8%B3%E2%80%AD/data=!4m7!3m6!1s0x1583cb2f08c43807:0xe6512af9628312b4!8m2!3d25.8494875!4d43.4843585!16s%2Fg%2F11t5d4xy1z!19sChIJBzjECC_LgxURtBKDYvkqUeY?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%A5%D8%B3%D8%AA%D8%B1%D8%A7%D8%AD%D8%A9+%D8%A7%D9%84%D8%AF%D8%B1%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x157f5f91955301a3:0x3a89836122381f9f!8m2!3d26.340127!4d44.0307967!16s%2Fg%2F11g4j8qkz6!19sChIJowFTlZFffxURnx84ImGDiTo?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B4%D9%82%D9%82+%D9%81%D9%86%D8%AF%D9%82%D9%8A%D9%87+%D8%B1%D9%88%D8%B2+%D8%A8%D9%84%D8%A7%D8%B2%D8%A7%E2%80%AD/data=!4m7!3m6!1s0x15fca137eb259531:0x59efd1e9acd455c3!8m2!3d18.1865188!4d42.8147849!16s%2Fg%2F11nxv0rf1v!19sChIJMZUl6zeh_BURw1XUrOnR71k?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%A7%D9%84%D8%A7%D8%B3%D8%AA%D8%B1%D8%A7%D8%AD%D8%A9+%D8%A7%D9%84%D8%B9%D8%B1%D8%A8%D9%8A%D8%A9.%E2%80%AD/data=!4m7!3m6!1s0x3e2f1a07db141565:0x33772a74c35b08c8!8m2!3d24.5675458!4d46.6024444!16s%2Fg%2F11hc_88f2s!19sChIJZRUU2wcaLz4RyAhbw3QqdzM?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B4%D9%82%D9%82+%D9%88+%D9%88%D8%AD%D8%AF%D8%A7%D8%AA+%D9%81%D9%86%D8%AF%D9%82%D9%8A%D8%A9+%D9%87%D8%A7%D9%81%D8%A7%D9%86%D8%A7%E2%80%AD/data=!4m7!3m6!1s0x15fb598b28b5e04b:0x9b991f261dc3006a!8m2!3d18.273037!4d42.7209044!16s%2Fg%2F11v0xzgxns!19sChIJS-C1KItZ-xURagDDHSYfmZs?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%81%D9%86%D8%AF%D9%82+%D8%B4%D8%B1%D9%88%D9%82+%D8%A7%D9%84%D8%B9%D8%AF%D9%84%E2%80%AD/data=!4m7!3m6!1s0x15c21b42501d1cbd:0xe22a21dd0b8f43c6!8m2!3d21.4325781!4d39.7981346!16s%2Fg%2F11cpcwrxr7!19sChIJvRwdUEIbwhURxkOPC90hKuI?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B4%D8%A7%D9%84%D9%8A+2+%D9%84%D9%84%D8%A7%D8%AC%D9%86%D8%AD%D8%A9+%D8%A7%D9%84%D9%81%D9%86%D8%AF%D9%82%D9%8A%D8%A9%E2%80%AD/data=!4m10!3m9!1s0x3e49e9366e935861:0xd6e2729f48e9baf!5m2!4m1!1i2!8m2!3d26.2882951!4d50.1874737!16s%2Fg%2F11h56qwzd3!19sChIJYViTbjbpST4Rr5uO9Cknbg0?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B4%D8%A7%D9%84%D9%8A%D8%A9+%D9%84%D8%A7%D9%83%D9%88%D8%B3%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x157f566b18a0f661:0x8f40db6d30a928b!8m2!3d26.3791402!4d43.8836037!16s%2Fg%2F11c550ln1q!19sChIJYfagGGtWfxURi5IK07YN9Ag?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B4%D8%A7%D9%84%D9%8A%D9%87+%D8%AA%D9%88%D8%AA+%D9%88%D9%83%D8%B1%D8%B2%E2%80%AD/data=!4m7!3m6!1s0x1583cb22d2be4fd3:0x8cdca1c462089fb2!8m2!3d25.8880325!4d43.5205121!16s%2Fg%2F11f5r7f6rz!19sChIJ00--0iLLgxURsp8IYsSh3Iw?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%A7%D8%B3%D8%AA%D8%B1%D8%A7%D8%AD%D9%87+%D8%B5%D8%A7%D9%84%D8%AD+%D8%A7%D9%84%D8%B4%D9%85%D8%B1%D8%A7%D9%86%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x15c3cb95968cb2cd:0xa673ed7682560c6f!8m2!3d21.3928523!4d39.3189599!16s%2Fg%2F11sfd_m12x!19sChIJzbKMlpXLwxURbwxWgnbtc6Y?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B4%D8%A7%D9%84%D9%8A%D9%87+%D9%85%D9%8A%D9%90%D9%84%D9%88%D8%B3%E2%80%AD/data=!4m7!3m6!1s0x15bd97971a98c75f:0x7efc4e69d00db001!8m2!3d24.5097844!4d39.6955927!16s%2Fg%2F11p5kws5w4!19sChIJX8eYGpeXvRURAbAN0GlO_H4?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B4%D8%A7%D9%84%D9%8A%D9%87+%D8%AF%D8%B1%D9%87+%D8%A7%D9%84%D8%AF%D9%8A%D9%88%D8%A7%D9%86%E2%80%AD/data=!4m7!3m6!1s0x3e2f116e1b6b1531:0xabc2b3e67ee7be5!8m2!3d24.5344299!4d46.6287183!16s%2Fg%2F11fhwg7tww!19sChIJMRVrG24RLz4R5XvuZz4rvAo?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B4%D8%A7%D9%84%D9%8A%D8%A9+%D8%AC%D9%88%D8%A7%D9%86%D8%A7%E2%80%AD/data=!4m7!3m6!1s0x15979baadec2af51:0xd7255a1eb5b114f5!8m2!3d24.8852939!4d40.50867!16s%2Fg%2F11rvhjkxss!19sChIJUa_C3qqblxUR9RSxtR5aJdc?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%81%D9%86%D8%AF%D9%82+%D8%A7%D9%84%D8%AD%D8%AC%D9%8A%D8%AC+%D8%A7%D9%84%D8%B0%D9%87%D8%A8%D9%8A+1%E2%80%AD/data=!4m10!3m9!1s0x15c21b4d0f22d8ff:0xc4949764a6347b6d!5m2!4m1!1i2!8m2!3d21.4291571!4d39.8143261!16s%2Fg%2F11f50sd8t7!19sChIJ_9giD00bwhURbXs0pmSXlMQ?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%A7%D9%84%D9%87%D9%84%D9%8A%D9%88%D9%86+%D9%84%D9%84%D9%88%D8%AD%D8%AF%D8%A7%D8%AA+%D8%A7%D9%84%D8%B3%D9%83%D9%86%D9%8A%D8%A9+%D8%A7%D9%84%D9%85%D9%81%D8%B1%D9%88%D8%B4%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x3e2efdc39cc99403:0x6f40afa6d7b6c71c!8m2!3d24.7893851!4d46.7353842!16s%2Fg%2F11c3198315!19sChIJA5TJnMP9Lj4RHMe216avQG8?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D9%86%D8%AA%D8%AC%D8%B9+%D8%B1%D9%88%D8%B2+%D8%AF%D8%A7%D9%86%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x3e35ffb5082b1729:0x4cd3bb2e986663dd!8m2!3d26.5285374!4d49.9988675!16s%2Fg%2F11fkt0lmt_!19sChIJKRcrCLX_NT4R3WNmmC6700w?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%A7%D9%84%D9%81%D9%84%D8%A7%D8%AD+%D9%84%D9%84%D8%B4%D9%82%D9%82+%D8%A7%D9%84%D9%85%D9%81%D8%B1%D9%88%D8%B4%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x15b907d53e28810f:0x2ce41a74255f1b50!8m2!3d24.0924058!4d38.0540429!16s%2Fg%2F11txs_twcm!19sChIJD4EoPtUHuRURUBtfJXQa5Cw?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%A5%D9%8A%D9%88%D8%A7%D9%86+%D9%84%D9%84%D9%88%D8%AD%D8%AF%D8%A7%D8%AA+%D8%A7%D9%84%D8%B3%D9%83%D9%86%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x3e2f046971848a0d:0x62dcb70b787a89ff!8m2!3d24.6689999!4d46.7227977!16s%2Fg%2F11cll_j7wr!19sChIJDYqEcWkELz4R_4l6eAu33GI?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B4%D8%A7%D9%84%D9%8A%D9%87+%D8%A7%D8%A8%D9%88+%D9%85%D8%B4%D8%B9%D9%84%E2%80%AD/data=!4m10!3m9!1s0x1581fb630ce196ab:0x29dd3d30ca6be07e!5m2!4m1!1i2!8m2!3d26.2535629!4d43.9088321!16s%2Fg%2F11t3f2834g!19sChIJq5bhDGP7gRURfuBryjA93Sk?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B4%D9%82%D8%A9+%D9%85%D9%81%D8%B1%D9%88%D8%B4%D8%A9+%D8%AE%D8%A7%D8%B5%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x15e98df506f6172f:0xf0b6d48aa6cb94c!8m2!3d21.2333257!4d40.3719648!16s%2Fg%2F11vcm65j_9!19sChIJLxf2BvWN6RURTLlsqkhtCw8?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%A5%D8%B3%D8%AA%D8%B1%D8%A7%D8%AD%D8%A9+%D9%85%D8%B3%D9%83+7+%D8%A7%D9%84%D8%AC%D8%A8%D9%8A%D9%84%E2%80%AD/data=!4m7!3m6!1s0x3e3599b89ffb4919:0xa71caecd1eacc166!8m2!3d26.8978319!4d49.7104529!16s%2Fg%2F11f77676zq!19sChIJGUn7n7iZNT4RZsGsHs2uHKc?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B4%D9%82%D9%82+%D8%A8%D9%8A%D8%A7%D8%AA+2%E2%80%AD/data=!4m7!3m6!1s0x157f573b3f31a123:0x7e445ca156ea2c79!8m2!3d26.3553654!4d43.9351596!16s%2Fg%2F11q49026jb!19sChIJI6ExPztXfxUReSzqVqFcRH4?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B4%D8%A7%D9%84%D9%8A%D9%87+%D9%85%D8%A7%D8%B1%D9%81%D9%84%D9%8A%D8%B3.%E2%80%AD/data=!4m7!3m6!1s0x157f5127cc28d477:0x7b2624f1d7bebf21!8m2!3d26.4372709!4d43.9034097!16s%2Fg%2F11cn93b8lc!19sChIJd9QozCdRfxURIb--1_EkJns?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%A7%D9%84%D9%85%D9%86%D8%B5%D9%88%D8%B1+%D8%A8%D9%84%D8%A7%D8%B2%D8%A7+%D9%84%D9%84%D8%B4%D9%82%D9%82+%D8%A7%D9%84%D9%81%D9%86%D8%AF%D9%82%D9%8A%D8%A9%E2%80%AD/data=!4m10!3m9!1s0x3e49fc0b75f6ab65:0xd9f4314ebc7f9318!5m2!4m1!1i2!8m2!3d26.4542684!4d50.096817!16s%2Fg%2F11b73ms_qz!19sChIJZav2dQv8ST4RGJN_vE4x9Nk?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B4%D8%A7%D9%84%D9%8A%D8%A9+%D8%B3%D9%88%D8%A7%D9%84%D9%81%E2%80%AD/data=!4m7!3m6!1s0x15b909a38fc98535:0x1775d472dfb1bee8!8m2!3d24.1277006!4d37.9808887!16s%2Fg%2F11fnqjblnj!19sChIJNYXJj6MJuRUR6L6x33LUdRc?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B4%D9%82%D9%82+%D8%B9%D9%88%D8%A7%D8%A6%D9%84+%D9%85%D8%A4%D8%AB%D8%AB%D9%87+%D8%B4%D9%87%D8%B1%D9%8A+%D9%88+%D8%B3%D9%86%D9%88%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x157f576704c558f9:0xbca4ebc12ccdd2a0!8m2!3d26.3966036!4d43.9239728!16s%2Fg%2F11rr68bgn4!19sChIJ-VjFBGdXfxURoNLNLMHrpLw?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D9%86%D8%AA%D8%AC%D8%B9%D8%A7%D8%AA+%D9%83%D9%84%D9%8A%D9%85%D8%A7%D9%86%D8%B3%E2%80%AD/data=!4m7!3m6!1s0x15e98dee74f77977:0x7930f053abce7bb3!8m2!3d21.2133474!4d40.3753929!16s%2Fg%2F11gf_017dd!19sChIJd3n3dO6N6RURs3vOq1PwMHk?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%87%D8%A7%D8%AC%D8%B1+%D9%84%D9%84%D9%88%D8%AD%D8%AF%D8%A7%D8%AA+%D8%A7%D9%84%D8%B3%D9%83%D9%86%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x15c2044f652a7e6b:0xcb61c7ef1ace59cb!8m2!3d21.3946311!4d39.8714175!16s%2Fg%2F11c6f9_wvn!19sChIJa34qZU8EwhURy1nOGu_HYcs?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%81%D9%86%D8%AF%D9%82+%D9%8A%D9%88%D9%85+%D8%A7%D9%84%D8%A7%D8%B3%D8%AA%D8%B1%D8%AE%D8%A7%D8%A1%E2%80%AD/data=!4m10!3m9!1s0x15a9ad5a4a73013d:0xe9d26bb29480abe5!5m2!4m1!1i2!8m2!3d28.3913533!4d36.5714477!16s%2Fg%2F11mf_3d1gg!19sChIJPQFzSlqtqRUR5auAlLJr0uk?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%A7%D9%84%D8%AB%D8%B1%D9%8A%D8%A7+%D9%84%D9%84%D8%A3%D8%AC%D9%86%D8%AD%D8%A9+%D8%A7%D9%84%D9%81%D9%86%D8%AF%D9%82%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x15943c11bafefc15:0x9d1e2332c19cc8a4!8m2!3d23.4920829!4d40.8897125!16s%2Fg%2F11cs9_jnwn!19sChIJFfz-uhE8lBURpMicwTIjHp0?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%81%D9%86%D8%AF%D9%82+%D8%A7%D9%87%D9%84%D9%8A%D9%86+2%E2%80%AD/data=!4m10!3m9!1s0x3e2eff6cf31dbfad:0x44a765b0e7df8ad1!5m2!4m1!1i2!8m2!3d24.8164104!4d46.7975162!16s%2Fg%2F11rmx51gyn!19sChIJrb8d82z_Lj4R0Yrf57Blp0Q?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%AF%D9%8A%D9%88%D8%A7%D9%86%D9%8A%D8%A9+%D8%A3%D8%A8%D9%88+%D8%B1%D8%A7%D9%83%D8%A7%D9%86%E2%80%AD/data=!4m7!3m6!1s0x15e35376cac77825:0x9ecad8eaaeb61e6d!8m2!3d18.1878063!4d42.5292761!16s%2Fg%2F11fd769h3n!19sChIJJXjHynZT4xURbR62rurYyp4?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%A7%D9%8A%D8%AB%D8%A7%D9%84+%D8%A7%D9%84%D9%81%D9%86%D8%AF%D9%82%D9%8A%D8%A9+%D9%84%D9%84%D9%88%D8%AD%D8%AF%D8%A7%D8%AA+%D8%A7%D9%84%D8%B3%D9%83%D9%86%D9%8A%D8%A9%E2%80%AD/data=!4m10!3m9!1s0x15c3da098f39b5e3:0x90895f18e3bbbdc3!5m2!4m1!1i2!8m2!3d21.6125234!4d39.1526331!16s%2Fg%2F11cnbsgn_7!19sChIJ47U5jwnawxURw7274xhfiZA?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D9%83%D8%AA%D8%A8+%D8%AF%D8%B1%D8%A9+%D8%A7%D9%84%D8%B6%D8%A7%D8%AD%D9%8A+%D9%84%D9%84%D8%B9%D9%82%D8%A7%D8%B1%D8%A7%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x157f5f68c4e39e35:0xa73c85c92e1fd720!8m2!3d26.3140902!4d44.0386652!16s%2Fg%2F11h3njcq32!19sChIJNZ7jxGhffxURINcfLsmFPKc?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B4%D8%A7%D9%84%D9%8A%D9%87%D8%A7%D8%AA+%D9%84%D8%A7%DA%A4%D8%A7%D9%86%D8%A7%E2%80%AD/data=!4m7!3m6!1s0x3e2f0f3b32b12b4f:0xbd4174bef290de39!8m2!3d24.5729173!4d46.7198723!16s%2Fg%2F11f5_hq2kl!19sChIJTyuxMjsPLz4ROd6Q8r50Qb0?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B1%D8%A7%D8%AD%D9%87+%D8%A8%D8%A7%D9%84+%D9%84%D9%84%D8%B4%D9%82%D9%82+%D8%A7%D9%84%D9%85%D9%81%D8%B1%D9%88%D8%B4%D9%87%E2%80%AD/data=!4m7!3m6!1s0x3e2efe601951b289:0xadf3246fbf6e7948!8m2!3d24.8146657!4d46.7662078!16s%2Fg%2F11c1s1r264!19sChIJibJRGWD-Lj4RSHluv28k860?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B4%D9%82%D9%82+%D9%85%D9%81%D8%B1%D9%88%D8%B4%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x15b9050482c6385b:0x6349bbc93103e237!8m2!3d24.0954395!4d38.0644839!16s%2Fg%2F11hdpg0v67!19sChIJWzjGggQFuRURN-IDMcm7SWM?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D9%86%D8%AA%D8%AC%D8%B9+%D8%B4%D9%88%D8%A7%D9%87%D8%AF%E2%80%AD/data=!4m7!3m6!1s0x3e255deb74b073a7:0x200f54c8e1992315!8m2!3d24.2364456!4d47.1993726!16s%2Fg%2F11hyz_89zl!19sChIJp3OwdOtdJT4RFSOZ4chUDyA?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B4%D8%A7%D9%84%D9%8A%D9%87%D8%A7%D8%AA+%D8%AA%D9%88%D8%A8%D8%A7%D8%B2%E2%80%AD/data=!4m7!3m6!1s0x15fb57c520f01acd:0x8d337258d1910067!8m2!3d18.2411143!4d42.6880339!16s%2Fg%2F11q4bg6cj9!19sChIJzRrwIMVX-xURZwCR0VhyM40?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/TPH+Al+Ameen+Hotel+%D9%81%D9%86%D8%AF%D9%82+%D9%86%D9%82%D8%A7%D8%B7+%D8%AB%D9%84%D8%A7%D8%AB%D8%A9+%D8%A7%D9%84%D8%A3%D9%85%D9%8A%D9%86%E2%80%AD/data=!4m7!3m6!1s0x15bdbfaf3e8858ab:0x870c90e5a7843549!8m2!3d24.463546!4d39.6138443!16s%2Fg%2F11m0q7dx_d!19sChIJq1iIPq-_vRURSTWEp-WQDIc?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%A7%D8%B3%D8%AA%D8%B1%D8%A7%D8%AD%D8%A9+%D8%A8%D8%AF%D8%B1+%D8%A7%D8%A8%D8%AD%D8%B1%E2%80%AD/data=!4m7!3m6!1s0x15c163bdfd6f98f1:0x538d43367bfd7991!8m2!3d21.7812887!4d39.0971482!16s%2Fg%2F11gcx_vlwz!19sChIJ8Zhv_b1jwRURkXn9ezZDjVM?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Mafroosh+Furnished+Apartment/data=!4m7!3m6!1s0x3e2f031311fc3aa7:0xc45e69653e82dcf8!8m2!3d24.7097114!4d46.6725024!16s%2Fg%2F11rd83tx2d!19sChIJpzr8ERMDLz4R-NyCPmVpXsQ?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B4%D9%82%D9%82%D9%8A+%D8%A7%D9%84%D9%85%D9%81%D8%B1%D9%88%D8%B4%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x3e2541adc3e85b61:0xdcf56c34143b9fb0!8m2!3d24.0211372!4d47.172431!16s%2Fg%2F11kppf72l2!19sChIJYVvow61BJT4RsJ87FDRs9dw?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%81%D9%86%D8%AF%D9%82+%D8%B7%D9%8A%D8%A8%D8%A9+%D8%B1%D9%88%D8%B2%E2%80%AD/data=!4m7!3m6!1s0x15bdbf03c5227d3f:0x40b08a8c65a9ea0!8m2!3d24.4636973!4d39.6059164!16s%2Fg%2F11b6dplwz4!19sChIJP30ixQO_vRURoJ5axqgICwQ?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B4%D9%82%D9%82+%D8%B3%D9%85%D8%A7+%D9%86%D8%AC%D8%B1%D8%A7%D9%86%E2%80%AD/data=!4m7!3m6!1s0x15fec3d3500c1a47:0x20809e0bf4355dea!8m2!3d17.5719483!4d44.2268183!16s%2Fg%2F11rk0cw1f2!19sChIJRxoMUNPD_hUR6l019AuegCA?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B4%D8%A7%D9%84%D9%8A%D9%87%D8%A7%D8%AA+%D8%A8%D8%B1%D8%A7%D8%AF%D8%A7%D9%8A%D8%B3%E2%80%AD/data=!4m7!3m6!1s0x3e37909c48cd51f5:0xcf1a5898f8a82673!8m2!3d25.3144486!4d49.5310644!16s%2Fg%2F11gf8fh7nk!19sChIJ9VHNSJyQNz4Rcyao-JhYGs8?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%81%D9%86%D8%AF%D9%82+%D8%A7%D9%84%D9%88%D8%AF%D9%82%E2%80%AD/data=!4m7!3m6!1s0x15e98f7b241becfd:0xee82b6f57fc10141!8m2!3d21.2636578!4d40.4091776!16s%2Fg%2F11ry58_339!19sChIJ_ewbJHuP6RURQQHBf_W2gu4?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%8A%D9%88%D8%B1%D9%88+150%E2%80%AD/data=!4m7!3m6!1s0x3e35a1bb1331a443:0xc588c9bb11f891b3!8m2!3d26.990869!4d49.6239406!16s%2Fg%2F11f7lb153f!19sChIJQ6QxE7uhNT4Rs5H4EbvJiMU?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B4%D8%A7%D9%84%D9%8A%D8%A9+%D8%A7%D9%85%D8%A7%D9%84%D9%81%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x1581e31c41cc4673:0x56fde7a3e0ebab35!8m2!3d26.2849943!4d43.9691277!16s%2Fg%2F11bzs5mt78!19sChIJc0bMQRzjgRURNavr4KPn_VY?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B4%D8%A7%D9%84%D9%8A%D9%87%D8%A7%D8%AA+%D8%A3%D8%A8%D9%8A%D8%A7%D8%AA%E2%80%AD/data=!4m10!3m9!1s0x15ea31da24231f35:0xa71ebe18341c25f1!5m2!4m1!1i2!8m2!3d21.5038584!4d40.5007834!16s%2Fg%2F11p02t9p_f!19sChIJNR8jJNox6hUR8SUcNBi-Hqc?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%81%D9%86%D8%AF%D9%82+%D8%AF%D8%A7%D8%B1+%D8%A7%D9%84%D8%A5%D9%8A%D9%85%D8%A7%D9%86+%D8%A7%D9%84%D8%B3%D8%AF%E2%80%AD/data=!4m10!3m9!1s0x15c204be98234b85:0x30ee99f0771a838c!5m2!4m1!1i2!8m2!3d21.4206215!4d39.833749!16s%2Fg%2F11csb0ppt_!19sChIJhUsjmL4EwhURjIMad_CZ7jA?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B9%D9%85%D8%A7%D8%B1%D8%A9+%D8%A7%D9%84%D8%AF%D8%B9%D8%A8%D8%B4%E2%80%AD/data=!4m7!3m6!1s0x3e2f05acf761bee3:0xc6deaa2356a1cd79!8m2!3d24.669771!4d46.7348529!16s%2Fg%2F11ry7l9sg3!19sChIJ475h96wFLz4Rec2hViOq3sY?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%81%D9%86%D8%AF%D9%82+%D8%A7%D9%84%D9%86%D8%AE%D9%84%D8%A9+%D8%A7%D9%84%D8%B9%D8%B1%D8%A8%D9%8A%D8%A9%E2%80%AD/data=!4m10!3m9!1s0x15c096f47382e28f:0x2e4ee0c05a152eba!5m2!4m1!1i2!8m2!3d22.7997804!4d39.0342156!16s%2Fg%2F12vtrv1yn!19sChIJj-KCc_SWwBURui4VWsDgTi4?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%A7%D9%84%D8%B9%D8%A7%D9%8A%D8%B6%D9%8A+%D9%84%D9%84%D8%B4%D9%82%D9%82+%D8%A7%D9%84%D9%85%D8%AE%D8%AF%D9%88%D9%85%D8%A9+-+%D8%A7%D9%84%D8%B3%D9%88%D9%8A%D8%AF%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x3e2f11157d5a62ef:0x150dae8ee52d6e98!8m2!3d24.5651473!4d46.6278419!16s%2Fg%2F11f6csl0fn!19sChIJ72JafRURLz4RmG4t5Y6uDRU?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%81%D9%86%D8%AF%D9%82+%D8%AF%D9%88%D8%B1+%D9%88%D8%A7%D8%B1%D9%81+%D9%84%D9%84%D8%A7%D8%AC%D9%86%D8%AD%D8%A9+%D8%A7%D9%84%D9%81%D9%86%D8%AF%D9%82%D9%8A%D8%A9%E2%80%AD/data=!4m10!3m9!1s0x3e2549d7472a316d:0x40d23e70fd8991a9!5m2!4m1!1i2!8m2!3d24.1363281!4d47.3635023!16s%2Fg%2F11sstvq6s4!19sChIJbTEqR9dJJT4RqZGJ_XA-0kA?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%81%D9%86%D8%AF%D9%82+%D8%A7%D9%84%D8%AD%D8%B2%D9%85%E2%80%AD/data=!4m7!3m6!1s0x15fb5f889ead8f49:0x1fbd66f86795635d!8m2!3d18.2124993!4d42.8064131!16s%2Fg%2F11fl5dmlzx!19sChIJSY-tnohf-xURXWOVZ_hmvR8?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D9%83%D8%AA%D8%A8+%D8%A7%D9%84%D9%85%D8%A8%D8%A7%D8%B1%D9%83+%D9%84%D9%84%D8%B9%D9%82%D8%A7%D8%B1%D8%A7%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x3e25470aaafa6247:0x656a07227ea4de6a!8m2!3d24.102723!4d47.2631494!16s%2Fg%2F11shp0mfj_!19sChIJR2L6qgpHJT4Rat6kfiIHamU?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B4%D9%82%D9%82+%D9%85%D9%81%D8%B1%D9%88%D8%B4%D9%87+%D9%84%D9%84%D8%A7%D9%8A%D8%AC%D8%A7%D8%B1+%D8%A7%D9%84%D8%B4%D9%87%D8%B1%D9%8A+%D9%88%D8%A7%D9%84%D8%B3%D9%86%D9%88%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x15c3da786a3c2797:0xeb1bbc9b502f7f1e!8m2!3d21.5956876!4d39.1520663!16s%2Fg%2F11xpjj3kc!19sChIJlyc8anjawxURHn8vUJu8G-s?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B4%D8%A7%D9%84%D9%8A%D9%87%D8%A7%D8%AA+%D8%A7%D9%84%D8%A7%D9%86%D8%AF%D9%84%D8%B3%E2%80%AD/data=!4m7!3m6!1s0x15fb5b99aac3c54b:0x91da9304dae91ea3!8m2!3d18.3364403!4d42.7665292!16s%2Fg%2F11hzrzkc4d!19sChIJS8XDqplb-xURox7p2gST2pE?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D9%8A%D9%84%D8%A7%D9%81+%D9%84%D9%84%D9%88%D8%AD%D8%AF%D8%A7%D8%AA+%D8%A7%D9%84%D8%B3%D9%83%D9%86%D9%8A%D8%A9+%D8%A7%D9%84%D9%85%D9%81%D8%B1%D9%88%D8%B4%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x3e2f0273303e9fbf:0x6f94ece779a68027!8m2!3d24.7566785!4d46.7279318!16s%2Fg%2F1yh9tybp6!19sChIJv58-MHMCLz4RJ4CmeefslG8?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%AF%D9%8A%D9%86%D8%A9+%D8%A7%D9%84%D9%85%D9%84%D9%83+%D8%B9%D8%A8%D8%AF%D8%A7%D9%84%D9%84%D9%87+%D8%A7%D9%84%D8%A7%D9%82%D8%AA%D8%B5%D8%A7%D8%AF%D9%8A%D9%87%E2%80%AD/data=!4m7!3m6!1s0x15c0e5ca853f1189:0x7ee81e7ffafb099!8m2!3d22.4486944!4d39.1335549!16s%2Fg%2F11kj4nndtw!19sChIJiRE_hcrlwBURmbCv_-eB7gc?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B4%D8%A7%D9%84%D9%8A%D9%87%D8%A7%D8%AA+%D9%85%D9%88%D8%AF%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x1581ee585809ee63:0x6a64f04ab690f72d!8m2!3d26.1216364!4d43.9800782!16s%2Fg%2F11ggmnxdt9!19sChIJY-4JWFjugRURLfeQtkrwZGo?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%A8%D9%8A%D8%B3%D8%AA%D8%A7%D9%86%D8%A7+%D9%84%D9%84%D8%B4%D9%82%D9%82+%D8%A7%D9%84%D9%81%D9%86%D8%AF%D9%82%D9%8A%D9%87+3%E2%80%AD/data=!4m10!3m9!1s0x3e2ee30abc577b93:0x186e397eb0154e19!5m2!4m1!1i2!8m2!3d24.7853827!4d46.6327069!16s%2Fg%2F11fztnky7d!19sChIJk3tXvArjLj4RGU4VsH45bhg?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%A7%D8%B3%D8%AA%D8%B1%D8%A7%D8%AD%D8%A9+%D8%AC%D9%8F%D9%85%D8%A7%D9%86+%D8%A7%D9%84%D9%85%D8%AF%D9%8A%D9%86%D8%A9+%D8%A7%D9%84%D9%85%D9%86%D9%88%D8%B1%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x15bdeb314bdb9b37:0xd37b9cb7da09d52a!8m2!3d24.3986984!4d39.6597575!16s%2Fg%2F11rjjkdqw7!19sChIJN5vbSzHrvRURKtUJ2rece9M?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%81%D9%86%D8%AF%D9%82+%D8%B2%D9%88%D8%A7%D8%B1+%D8%A7%D9%84%D8%B9%D8%A7%D9%84%D9%85%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x15bdbfc151cac57f:0x4abbc27fe9089642!8m2!3d24.473188!4d39.6087148!16s%2Fg%2F11tmrh1ywf!19sChIJf8XKUcG_vRURQpYI6X_Cu0o?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B4%D8%A7%D9%84%D9%8A%D9%87+%D8%B1%D8%A7%D9%85%D9%88%D9%86%D8%AF%D8%A7%E2%80%AD/data=!4m7!3m6!1s0x1581fd8f7646ccd3:0xcc85184808b7d894!8m2!3d26.312346!4d43.8678017!16s%2Fg%2F11f7slwbgy!19sChIJ08xGdo_9gRURlNi3CEgYhcw?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%A7%D8%AC%D9%86%D8%AD%D8%A9+%D8%AA%D8%A7%D9%84%D8%A9+%D8%A7%D9%84%D9%81%D9%86%D8%AF%D9%82%D9%8A%D8%A9+Talah+hotel+suites%E2%80%AD/data=!4m10!3m9!1s0x157f573d136e6bd1:0x8a7464ab9da56f0e!5m2!4m1!1i2!8m2!3d26.4045778!4d43.9166484!16s%2Fg%2F11cksds3mn!19sChIJ0WtuEz1XfxURDm-lnatkdIo?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B4%D8%A7%D9%84%D9%8A%D9%87+%D9%83%D8%A7%D9%84%D9%8A%D8%B3%D8%AA%D8%A7%E2%80%AD/data=!4m7!3m6!1s0x1572b11973aca2bd:0x364fc89fb6ecd1d5!8m2!3d30.0096961!4d40.1433739!16s%2Fg%2F11tj_9s0mh!19sChIJvaKscxmxchUR1dHstp_ITzY?authuser=0&amp;hl=ar&amp;rclk=1</t>
+    <t>https://www.go...</t>
   </si>
   <si>
     <t>منتجع أوراف</t>
@@ -1739,10 +1442,10 @@
     <t>فندق المشعان</t>
   </si>
   <si>
-    <t>أماكن مفروشة( دخول ذكي )</t>
-  </si>
-  <si>
-    <t>منتجع واستراحة مكارم</t>
+    <t>أماكن مفروشة( ...</t>
+  </si>
+  <si>
+    <t>منتجع واستراحة...</t>
   </si>
   <si>
     <t>مجموعة الفيصل</t>
@@ -1751,19 +1454,19 @@
     <t>منتجع فنسيا</t>
   </si>
   <si>
-    <t>Green Leaf Hotel فندق جرين ليف</t>
-  </si>
-  <si>
-    <t>استراحة عاليه المدينه</t>
-  </si>
-  <si>
-    <t>العييري للشقق المخدومه</t>
-  </si>
-  <si>
-    <t>استراحه الخيال</t>
-  </si>
-  <si>
-    <t>اكابر للوحدات السكنيه المفروشه</t>
+    <t>Green Leaf Hot...</t>
+  </si>
+  <si>
+    <t>استراحة عاليه ...</t>
+  </si>
+  <si>
+    <t>العييري للشقق ...</t>
+  </si>
+  <si>
+    <t>استراحه الخيال...</t>
+  </si>
+  <si>
+    <t>اكابر للوحدات ...</t>
   </si>
   <si>
     <t>البستان</t>
@@ -1772,61 +1475,61 @@
     <t>فندق الحماد</t>
   </si>
   <si>
-    <t>مكة المكرمة حي المسفلة شارع إبراهيم خليل</t>
-  </si>
-  <si>
-    <t>فندق لو بارك كونكورد</t>
+    <t>مكة المكرمة حي...</t>
+  </si>
+  <si>
+    <t>فندق لو بارك ك...</t>
   </si>
   <si>
     <t>فندق جدة 1</t>
   </si>
   <si>
-    <t>دار سُبَات للشقق المفروشه</t>
-  </si>
-  <si>
-    <t>منتجع الفردوس بالمطيرفي</t>
-  </si>
-  <si>
-    <t>شاليهات و بحيرة الخزامى الترفيهية</t>
-  </si>
-  <si>
-    <t>شالية هناي للمناسبات</t>
+    <t>دار سُبَات للش...</t>
+  </si>
+  <si>
+    <t>منتجع الفردوس ...</t>
+  </si>
+  <si>
+    <t>شاليهات و بحير...</t>
+  </si>
+  <si>
+    <t>شالية هناي للم...</t>
   </si>
   <si>
     <t>فندق وكن</t>
   </si>
   <si>
-    <t>التاج سويت للأجنحة الفندقيه</t>
+    <t>التاج سويت للأ...</t>
   </si>
   <si>
     <t>استراحة الريف</t>
   </si>
   <si>
-    <t>شاليهات سارة للإيجار اليومي</t>
-  </si>
-  <si>
-    <t>مخيم ناصر سعود بو ياسر</t>
+    <t>شاليهات سارة ل...</t>
+  </si>
+  <si>
+    <t>مخيم ناصر سعود...</t>
   </si>
   <si>
     <t>دار الهدى 1</t>
   </si>
   <si>
-    <t>شاليه فيلا الياسمين</t>
+    <t>شاليه فيلا الي...</t>
   </si>
   <si>
     <t>شاليه زهر</t>
   </si>
   <si>
-    <t>منتجع الجنان (منتجع خاص)</t>
-  </si>
-  <si>
-    <t>فندق موڤنبيك جدة التحلية</t>
+    <t>منتجع الجنان (...</t>
+  </si>
+  <si>
+    <t>فندق موڤنبيك ج...</t>
   </si>
   <si>
     <t>شاليه ورد</t>
   </si>
   <si>
-    <t>فندق الموحدين المحبس</t>
+    <t>فندق الموحدين ...</t>
   </si>
   <si>
     <t>شاليه لومينوس</t>
@@ -1835,106 +1538,106 @@
     <t>إستراحة الدرة</t>
   </si>
   <si>
-    <t>شقق فندقيه روز بلازا</t>
-  </si>
-  <si>
-    <t>الاستراحة العربية.</t>
-  </si>
-  <si>
-    <t>شقق و وحدات فندقية هافانا</t>
-  </si>
-  <si>
-    <t>فندق شروق العدل</t>
-  </si>
-  <si>
-    <t>شالي 2 للاجنحة الفندقية</t>
+    <t>شقق فندقيه روز...</t>
+  </si>
+  <si>
+    <t>الاستراحة العر...</t>
+  </si>
+  <si>
+    <t>شقق و وحدات فن...</t>
+  </si>
+  <si>
+    <t>فندق شروق العد...</t>
+  </si>
+  <si>
+    <t>شالي 2 للاجنحة...</t>
   </si>
   <si>
     <t>شالية لاكوست</t>
   </si>
   <si>
-    <t>شاليه توت وكرز</t>
-  </si>
-  <si>
-    <t>استراحه صالح الشمراني</t>
+    <t>شاليه توت وكرز...</t>
+  </si>
+  <si>
+    <t>استراحه صالح ا...</t>
   </si>
   <si>
     <t>شاليه ميِلوس</t>
   </si>
   <si>
-    <t>شاليه دره الديوان</t>
+    <t>شاليه دره الدي...</t>
   </si>
   <si>
     <t>شالية جوانا</t>
   </si>
   <si>
-    <t>فندق الحجيج الذهبي 1</t>
-  </si>
-  <si>
-    <t>الهليون للوحدات السكنية المفروشة</t>
-  </si>
-  <si>
-    <t>منتجع روز دانة</t>
-  </si>
-  <si>
-    <t>الفلاح للشقق المفروشة</t>
-  </si>
-  <si>
-    <t>إيوان للوحدات السكنية</t>
-  </si>
-  <si>
-    <t>شاليه ابو مشعل</t>
-  </si>
-  <si>
-    <t>شقة مفروشة خاصة</t>
-  </si>
-  <si>
-    <t>إستراحة مسك 7 الجبيل</t>
+    <t>فندق الحجيج ال...</t>
+  </si>
+  <si>
+    <t>الهليون للوحدا...</t>
+  </si>
+  <si>
+    <t>منتجع روز دانة...</t>
+  </si>
+  <si>
+    <t>الفلاح للشقق ا...</t>
+  </si>
+  <si>
+    <t>إيوان للوحدات ...</t>
+  </si>
+  <si>
+    <t>شاليه ابو مشعل...</t>
+  </si>
+  <si>
+    <t>شقة مفروشة خاص...</t>
+  </si>
+  <si>
+    <t>إستراحة مسك 7 ...</t>
   </si>
   <si>
     <t>شقق بيات 2</t>
   </si>
   <si>
-    <t>شاليه مارفليس.</t>
-  </si>
-  <si>
-    <t>المنصور بلازا للشقق الفندقية</t>
+    <t>شاليه مارفليس....</t>
+  </si>
+  <si>
+    <t>المنصور بلازا ...</t>
   </si>
   <si>
     <t>شالية سوالف</t>
   </si>
   <si>
-    <t>شقق عوائل مؤثثه شهري و سنوي</t>
-  </si>
-  <si>
-    <t>منتجعات كليمانس</t>
-  </si>
-  <si>
-    <t>هاجر للوحدات السكنية</t>
-  </si>
-  <si>
-    <t>فندق يوم الاسترخاء</t>
-  </si>
-  <si>
-    <t>الثريا للأجنحة الفندقية</t>
+    <t>شقق عوائل مؤثث...</t>
+  </si>
+  <si>
+    <t>منتجعات كليمان...</t>
+  </si>
+  <si>
+    <t>هاجر للوحدات ا...</t>
+  </si>
+  <si>
+    <t>فندق يوم الاست...</t>
+  </si>
+  <si>
+    <t>الثريا للأجنحة...</t>
   </si>
   <si>
     <t>فندق اهلين 2</t>
   </si>
   <si>
-    <t>ديوانية أبو راكان</t>
-  </si>
-  <si>
-    <t>ايثال الفندقية للوحدات السكنية</t>
-  </si>
-  <si>
-    <t>مكتب درة الضاحي للعقارات</t>
-  </si>
-  <si>
-    <t>شاليهات لاڤانا</t>
-  </si>
-  <si>
-    <t>راحه بال للشقق المفروشه</t>
+    <t>ديوانية أبو را...</t>
+  </si>
+  <si>
+    <t>ايثال الفندقية...</t>
+  </si>
+  <si>
+    <t>مكتب درة الضاح...</t>
+  </si>
+  <si>
+    <t>شاليهات لاڤانا...</t>
+  </si>
+  <si>
+    <t>راحه بال للشقق...</t>
   </si>
   <si>
     <t>شقق مفروشة</t>
@@ -1946,13 +1649,13 @@
     <t>شاليهات توباز</t>
   </si>
   <si>
-    <t>TPH Al Ameen Hotel فندق نقاط ثلاثة الأمين</t>
-  </si>
-  <si>
-    <t>استراحة بدر ابحر</t>
-  </si>
-  <si>
-    <t>Mafroosh Furnished Apartment</t>
+    <t>TPH Al Ameen H...</t>
+  </si>
+  <si>
+    <t>استراحة بدر اب...</t>
+  </si>
+  <si>
+    <t>Mafroosh Furni...</t>
   </si>
   <si>
     <t>شققي المفروشة</t>
@@ -1964,7 +1667,7 @@
     <t>شقق سما نجران</t>
   </si>
   <si>
-    <t>شاليهات برادايس</t>
+    <t>شاليهات براداي...</t>
   </si>
   <si>
     <t>فندق الودق</t>
@@ -1979,55 +1682,55 @@
     <t>شاليهات أبيات</t>
   </si>
   <si>
-    <t>فندق دار الإيمان السد</t>
+    <t>فندق دار الإيم...</t>
   </si>
   <si>
     <t>عمارة الدعبش</t>
   </si>
   <si>
-    <t>فندق النخلة العربية</t>
-  </si>
-  <si>
-    <t>العايضي للشقق المخدومة - السويدي</t>
-  </si>
-  <si>
-    <t>فندق دور وارف للاجنحة الفندقية</t>
+    <t>فندق النخلة ال...</t>
+  </si>
+  <si>
+    <t>العايضي للشقق ...</t>
+  </si>
+  <si>
+    <t>فندق دور وارف ...</t>
   </si>
   <si>
     <t>فندق الحزم</t>
   </si>
   <si>
-    <t>مكتب المبارك للعقارات</t>
-  </si>
-  <si>
-    <t>شقق مفروشه للايجار الشهري والسنوي</t>
-  </si>
-  <si>
-    <t>شاليهات الاندلس</t>
-  </si>
-  <si>
-    <t>ميلاف للوحدات السكنية المفروشة</t>
-  </si>
-  <si>
-    <t>مدينة الملك عبدالله الاقتصاديه</t>
+    <t>مكتب المبارك ل...</t>
+  </si>
+  <si>
+    <t>شقق مفروشه للا...</t>
+  </si>
+  <si>
+    <t>شاليهات الاندل...</t>
+  </si>
+  <si>
+    <t>ميلاف للوحدات ...</t>
+  </si>
+  <si>
+    <t>مدينة الملك عب...</t>
   </si>
   <si>
     <t>شاليهات مودة</t>
   </si>
   <si>
-    <t>بيستانا للشقق الفندقيه 3</t>
-  </si>
-  <si>
-    <t>استراحة جُمان المدينة المنورة</t>
-  </si>
-  <si>
-    <t>فندق زوار العالمي</t>
+    <t>بيستانا للشقق ...</t>
+  </si>
+  <si>
+    <t>استراحة جُمان ...</t>
+  </si>
+  <si>
+    <t>فندق زوار العا...</t>
   </si>
   <si>
     <t>شاليه راموندا</t>
   </si>
   <si>
-    <t>اجنحة تالة الفندقية Talah hotel suites</t>
+    <t>اجنحة تالة الف...</t>
   </si>
   <si>
     <t>شاليه كاليستا</t>
@@ -2042,13 +1745,13 @@
     <t>فندق</t>
   </si>
   <si>
-    <t>عقار شقق مفروشة</t>
-  </si>
-  <si>
-    <t>شقق عطلات للإيجار</t>
-  </si>
-  <si>
-    <t>وكالة تأجير شقق</t>
+    <t>عقار شقق مفروش...</t>
+  </si>
+  <si>
+    <t>شقق عطلات للإي...</t>
+  </si>
+  <si>
+    <t>وكالة تأجير شق...</t>
   </si>
   <si>
     <t>4.0</t>
@@ -2282,304 +1985,298 @@
     <t>427</t>
   </si>
   <si>
-    <t>سفيان بن الحكم، ظهرة نمار، الرياض 14926، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>طريق المدينه، حي الوادي، حائل 55442، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>طريق ابراهيم الخليل، مكة 24361، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>F3XG+2GM، مخطط ب، شرورة 68341، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>9V7J+HHC حي, شارع العباس بن عبدالمطلب, النسيم، مكة 24245، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>الهدا جوار منتجع سما الطائف، الهدا 26522، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>2593 قريش، البوادي، جدة 23443، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>الحديقة،، المدينة المنورة 42383، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>6426، المحمدية، 5388, الدمام 32432، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>الهياثم 16257، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>4465, الرياض 13224، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>عين الخدود، الهفوف‎ 30877، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>حي البوادي،، 6461 Al Wazir، Jeddah شارع قريش المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>الهجلة، 3885 6219،، مكة 24231، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>8465 5365 طريق الملك فهد، الفيحاء،، المجمعة 15361، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>2788 بحر العرب، حي الحمراء، جدة 23212 6949، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>QR58+V92، النهضة، الرياض 13222، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>3960، مناطق زراعية، مناطق زراعية الهفوف والمبرز, الهفوف والمبرز 36322، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>RQX9+HG4، طريق الثمامة، المونسية، الرياض 13255، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>3738، حي الاجاويد، جدة 22452 9126، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>طريق قباء، العصبة، المدينة المنورة 42318، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>X682+HCH، سكاكا 72341، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>RV4M+W6V، الخالدية، دومة الجندل 74666، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>طريق الملك عبدالعزيز، حي, الرياض المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>بر المطار, صفوى 32753، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>CQJX+2PW، الزهراء، مكة 24221، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>الخزامي، حائل 55482، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>شارع عين، الهفوف‎ 31982، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>6350، صفوى 32911، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>8749 حائل، الأندلس، جدة 23326، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>CCPF+G2، حي الرحاب، الطائف 26587، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>3163، العزيزية، 9573 24235، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>حي الاحتفالات،, QOSC6735، 6735 قيس بن عتبة بن ربيعة، 4706،, الرس 58872، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>82RJ+383، طريق الهدية، بريدة 52364، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>3308، أحد رفيدة 62419 8259،،، أحد رفيدة 62419،، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>HJ92+2X8، شارع علسه بن عدي البلوي، حي ظهرة البديعة، ظهرة نمار، الرياض 14925، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>طريق الأمير سلطان، الشفاء، خميس مشيط 62433، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>7136 13، الزهراء، مكة 24221، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>75QP+8X9، الشارع الأول، العليا، الخبر 34429، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>5303، 7907، حي الشقة، بريدة 52564، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>VGQC+666، الشفاء، الرس 58884، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>98V9+4H، الاجاويد، جدة 22453، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>خالد بن يزيد بن حارثة، الملك فهد، المدينة المنورة 42366، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>10، الحزم، الرياض 14965، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>الحناكية 42644، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>CRH7+MP8، التيسير، مكة 24231، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>Abi Jafar Al Mansur، غرناطة، الرياض 13241، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>GXHX+CG9، أم الحمام، القطيف‎ 32651، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>YADB7815، 3501 ابو بكر الصديق رضي الله عنه، حي الربوة، 7815، ينبع 46424، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>MP9F+H4V, شارع الفرزدق، حي, الضباط، الرياض 12627، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>8852 إبن الأرقم، QGAA3225، 3225، بريدة 52518، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>حي الاخباب، TIAB4993، 4993 حرام ابن ملحان الانصاري، 8109، الطائف 26711، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>الدانة، حي، الجبيل المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>8652 طريق الأمير فيصل بن مشعل بن سعود، حي المنار، بريدة 52372 4321، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>2125, 8584, بريدة 52261، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>Near Al Sadafa Roundabout، الشارع الثامن عشر، السلام، الدمام 32416، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>3408، ينبع 46513 7340، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>9WWF+JHX، حي الريان، بريدة 52379، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>حي الاخباب، الطائف 26724، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>شارع القناعة، الجامعة، مكة 24242، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>طريق الامير فهد بن سلطان، العزيزية القديمة، تبوك 47912، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>FVRQ+RVP، شارع الملك فيصل، مهد الذهب 44411، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>RQ8X+H26، شارع النجاح، حي، اليرموك، الرياض 13252، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>5GQH+4PC، الربوة، أبها 62523، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>8119، حي السلامة، As Salamah District, 3577, جدة 23525، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>3639، 7383 طريق عمر بن عبدالعزيز، حي الضاحي، بريدة 52345 3639، 52345، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>وادي حنيفه، طريق ابن تيميه مع شارع النصر، الرياض المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>6796، المونسية، الرياض 13246، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>8147 طريق الملك فهد، 8147، 4559، ينبع 46424، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>6535، الهياثم 16254 4807، 16254، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>طريق الأمير سلطان، خميس مشيط 62217، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>شارع جعفر بن أبي طالب، بني خدرة، حي، المدينة المنورة 42311، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>حي، الأمير عبدالمجيد، الياقوت، جدة 23826، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>8444 طريق الملك فهد، العليا، الرياض 12333، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>OKGA2839، 2839 شارع صلاح الدين الأيوبي، 7609، الدلم 16233، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>طريق الحسن بن علي،، النقاء، المدينة المنورة 42311، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>شارع الأمير خالد السديري، نجران 66252، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>8G7J+QCG، البدرية، الهفوف‎ 36448، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>8935 5845 مصعب بن عمير، حي أم العراد، الطائف 26511، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>XJRF+8HW، حي اليرموك، المنطقة الصناعية،، الجبيل 35525، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>7512, 3823, بريدة 52336، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>GG32+G7، ج6، الطائف 26314، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>طريق الملك عبدالعزيز، Centeral Area، مكة 24231، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>2856 نفيع بن المعلي، حي الملز، الرياض 12836 7001، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>تحويل الراجحي, طريق الملك عبدالله مقابل, رابغ 21911، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>السويدي الغربي، الرياض 12993، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>الإمام أحمد بن حنبل، بجوار رائق القهوة، الخرج 16438، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>6R64+XHV، Unnamed Road، المدينة العسكرية، أحد رفيدة 62415، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>ابو ذر الغفاري، مشرف، الخرج 55887، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>قريش، street، جدة 23524، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>3701، خميس مشيط 62482 6074، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>11 الدوادمي، المغرزات، Riyadh- Magarazat - 11 Dwadmi St، الرياض 12481، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>C4XM+FCF، نورسان، مدينة الملك عبد الله الاقتصادية 23986، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>4XCJ+M24، طريق الملك عبد العزيز، الروغاني، عنيزة 56217، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>4005 Al Hawiy، 7724، العقيق, 7724، الرياض 12221، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>حي, 8480 حصين السدوسي، الغراء، المدينة المنورة 42385 4357،، المدينة المنورة المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>عبدالرحمن ابن عوف، 7147،, حي بضاعة،, DMAB2648، 2648, المدينة المنورة 42311، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>طريق الملك فهد، البصر، بريدة 52548، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>طريق الريان، حي الريان، بريدة 52379، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>طريق، الضبعية، سكاكا 72351، المملكة العربية السعودية</t>
+    <t>سفيان بن الحكم...</t>
+  </si>
+  <si>
+    <t>طريق المدينه، ...</t>
+  </si>
+  <si>
+    <t>طريق ابراهيم ا...</t>
+  </si>
+  <si>
+    <t>F3XG+2GM، مخطط...</t>
+  </si>
+  <si>
+    <t>9V7J+HHC حي, ش...</t>
+  </si>
+  <si>
+    <t>الهدا جوار منت...</t>
+  </si>
+  <si>
+    <t>2593 قريش، الب...</t>
+  </si>
+  <si>
+    <t>الحديقة،، المد...</t>
+  </si>
+  <si>
+    <t>6426، المحمدية...</t>
+  </si>
+  <si>
+    <t>الهياثم 16257،...</t>
+  </si>
+  <si>
+    <t>4465, الرياض 1...</t>
+  </si>
+  <si>
+    <t>عين الخدود، ال...</t>
+  </si>
+  <si>
+    <t>حي البوادي،، 6...</t>
+  </si>
+  <si>
+    <t>الهجلة، 3885 6...</t>
+  </si>
+  <si>
+    <t>8465 5365 طريق...</t>
+  </si>
+  <si>
+    <t>2788 بحر العرب...</t>
+  </si>
+  <si>
+    <t>QR58+V92، النه...</t>
+  </si>
+  <si>
+    <t>3960، مناطق زر...</t>
+  </si>
+  <si>
+    <t>RQX9+HG4، طريق...</t>
+  </si>
+  <si>
+    <t>3738، حي الاجا...</t>
+  </si>
+  <si>
+    <t>طريق قباء، الع...</t>
+  </si>
+  <si>
+    <t>X682+HCH، سكاك...</t>
+  </si>
+  <si>
+    <t>RV4M+W6V، الخا...</t>
+  </si>
+  <si>
+    <t>طريق الملك عبد...</t>
+  </si>
+  <si>
+    <t>بر المطار, صفو...</t>
+  </si>
+  <si>
+    <t>CQJX+2PW، الزه...</t>
+  </si>
+  <si>
+    <t>الخزامي، حائل ...</t>
+  </si>
+  <si>
+    <t>شارع عين، الهف...</t>
+  </si>
+  <si>
+    <t>6350، صفوى 329...</t>
+  </si>
+  <si>
+    <t>8749 حائل، الأ...</t>
+  </si>
+  <si>
+    <t>CCPF+G2، حي ال...</t>
+  </si>
+  <si>
+    <t>3163، العزيزية...</t>
+  </si>
+  <si>
+    <t>حي الاحتفالات،...</t>
+  </si>
+  <si>
+    <t>82RJ+383، طريق...</t>
+  </si>
+  <si>
+    <t>3308، أحد رفيد...</t>
+  </si>
+  <si>
+    <t>HJ92+2X8، شارع...</t>
+  </si>
+  <si>
+    <t>طريق الأمير سل...</t>
+  </si>
+  <si>
+    <t>7136 13، الزهر...</t>
+  </si>
+  <si>
+    <t>75QP+8X9، الشا...</t>
+  </si>
+  <si>
+    <t>5303، 7907، حي...</t>
+  </si>
+  <si>
+    <t>VGQC+666، الشف...</t>
+  </si>
+  <si>
+    <t>98V9+4H، الاجا...</t>
+  </si>
+  <si>
+    <t>خالد بن يزيد ب...</t>
+  </si>
+  <si>
+    <t>10، الحزم، الر...</t>
+  </si>
+  <si>
+    <t>الحناكية 42644...</t>
+  </si>
+  <si>
+    <t>CRH7+MP8، التي...</t>
+  </si>
+  <si>
+    <t>Abi Jafar Al M...</t>
+  </si>
+  <si>
+    <t>GXHX+CG9، أم ا...</t>
+  </si>
+  <si>
+    <t>YADB7815، 3501...</t>
+  </si>
+  <si>
+    <t>MP9F+H4V, شارع...</t>
+  </si>
+  <si>
+    <t>8852 إبن الأرق...</t>
+  </si>
+  <si>
+    <t>حي الاخباب، TI...</t>
+  </si>
+  <si>
+    <t>الدانة، حي، ال...</t>
+  </si>
+  <si>
+    <t>8652 طريق الأم...</t>
+  </si>
+  <si>
+    <t>2125, 8584, بر...</t>
+  </si>
+  <si>
+    <t>Near Al Sadafa...</t>
+  </si>
+  <si>
+    <t>3408، ينبع 465...</t>
+  </si>
+  <si>
+    <t>9WWF+JHX، حي ا...</t>
+  </si>
+  <si>
+    <t>حي الاخباب، ال...</t>
+  </si>
+  <si>
+    <t>شارع القناعة، ...</t>
+  </si>
+  <si>
+    <t>طريق الامير فه...</t>
+  </si>
+  <si>
+    <t>FVRQ+RVP، شارع...</t>
+  </si>
+  <si>
+    <t>RQ8X+H26، شارع...</t>
+  </si>
+  <si>
+    <t>5GQH+4PC، الرب...</t>
+  </si>
+  <si>
+    <t>8119، حي السلا...</t>
+  </si>
+  <si>
+    <t>3639، 7383 طري...</t>
+  </si>
+  <si>
+    <t>وادي حنيفه، طر...</t>
+  </si>
+  <si>
+    <t>6796، المونسية...</t>
+  </si>
+  <si>
+    <t>8147 طريق المل...</t>
+  </si>
+  <si>
+    <t>6535، الهياثم ...</t>
+  </si>
+  <si>
+    <t>شارع جعفر بن أ...</t>
+  </si>
+  <si>
+    <t>حي، الأمير عبد...</t>
+  </si>
+  <si>
+    <t>8444 طريق المل...</t>
+  </si>
+  <si>
+    <t>OKGA2839، 2839...</t>
+  </si>
+  <si>
+    <t>طريق الحسن بن ...</t>
+  </si>
+  <si>
+    <t>شارع الأمير خا...</t>
+  </si>
+  <si>
+    <t>8G7J+QCG، البد...</t>
+  </si>
+  <si>
+    <t>8935 5845 مصعب...</t>
+  </si>
+  <si>
+    <t>XJRF+8HW، حي ا...</t>
+  </si>
+  <si>
+    <t>7512, 3823, بر...</t>
+  </si>
+  <si>
+    <t>GG32+G7، ج6، ا...</t>
+  </si>
+  <si>
+    <t>2856 نفيع بن ا...</t>
+  </si>
+  <si>
+    <t>تحويل الراجحي,...</t>
+  </si>
+  <si>
+    <t>السويدي الغربي...</t>
+  </si>
+  <si>
+    <t>الإمام أحمد بن...</t>
+  </si>
+  <si>
+    <t>6R64+XHV، Unna...</t>
+  </si>
+  <si>
+    <t>ابو ذر الغفاري...</t>
+  </si>
+  <si>
+    <t>قريش، street، ...</t>
+  </si>
+  <si>
+    <t>3701، خميس مشي...</t>
+  </si>
+  <si>
+    <t>11 الدوادمي، ا...</t>
+  </si>
+  <si>
+    <t>C4XM+FCF، نورس...</t>
+  </si>
+  <si>
+    <t>4XCJ+M24، طريق...</t>
+  </si>
+  <si>
+    <t>4005 Al Hawiy،...</t>
+  </si>
+  <si>
+    <t>حي, 8480 حصين ...</t>
+  </si>
+  <si>
+    <t>عبدالرحمن ابن ...</t>
+  </si>
+  <si>
+    <t>طريق الملك فهد...</t>
+  </si>
+  <si>
+    <t>طريق الريان، ح...</t>
+  </si>
+  <si>
+    <t>طريق، الضبعية،...</t>
   </si>
   <si>
     <t>+966547231329</t>
@@ -2816,49 +2513,37 @@
     <t>+966531845808</t>
   </si>
   <si>
-    <t>https://wa.me/message/Z4DR6GVU5IMMK1</t>
-  </si>
-  <si>
-    <t>https://live.ipms247.com/booking/book-rooms-greenleafhotel</t>
-  </si>
-  <si>
-    <t>https://instagram.com/bustan_sa?igshid=1lwfxsh74ystz</t>
-  </si>
-  <si>
-    <t>http://www.wakanksa.com/</t>
-  </si>
-  <si>
-    <t>http://instagram.com/sara_relaxs</t>
-  </si>
-  <si>
-    <t>https://iwtsp.com/966558426677</t>
-  </si>
-  <si>
-    <t>https://movenpick.accor.com/en/middle-east/saudi-arabia/jeddah/hotel-jeddah-tahlia.html?merchantid=seo-maps-SA-B4X0&amp;sourceid=aw-cen&amp;utm_medium=seo+maps&amp;utm_source=google+Maps&amp;utm_campaign=seo+maps&amp;utm_content=Tahlia-Jeddah</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/tutandcherries</t>
-  </si>
-  <si>
-    <t>https://iwtsp.com/966500086982</t>
-  </si>
-  <si>
-    <t>https://website-osloshaleh.business.site/?utm_source=gmb&amp;utm_medium=referral</t>
-  </si>
-  <si>
-    <t>https://instagram.com/musk7.resort</t>
-  </si>
-  <si>
-    <t>http://instagram.com/shalyhatlavana</t>
-  </si>
-  <si>
-    <t>https://instagram.com/baderobhur?igshid=NGExMmI2YTkyZg==</t>
-  </si>
-  <si>
-    <t>https://gathern.co/r/TB102</t>
-  </si>
-  <si>
-    <t>https://reachnetwork.co/alwadak</t>
+    <t>https://wa.me/...</t>
+  </si>
+  <si>
+    <t>https://live.i...</t>
+  </si>
+  <si>
+    <t>https://instag...</t>
+  </si>
+  <si>
+    <t>http://www.wak...</t>
+  </si>
+  <si>
+    <t>http://instagr...</t>
+  </si>
+  <si>
+    <t>https://iwtsp....</t>
+  </si>
+  <si>
+    <t>https://movenp...</t>
+  </si>
+  <si>
+    <t>https://www.in...</t>
+  </si>
+  <si>
+    <t>https://websit...</t>
+  </si>
+  <si>
+    <t>https://gather...</t>
+  </si>
+  <si>
+    <t>https://reachn...</t>
   </si>
 </sst>
 </file>
@@ -5818,2203 +5503,2203 @@
         <v>472</v>
       </c>
       <c r="B2" t="s">
-        <v>572</v>
+        <v>473</v>
       </c>
       <c r="C2" t="s">
-        <v>672</v>
+        <v>573</v>
       </c>
       <c r="D2" t="s">
-        <v>678</v>
+        <v>579</v>
       </c>
       <c r="E2" t="s">
-        <v>702</v>
+        <v>603</v>
       </c>
       <c r="F2" t="s">
-        <v>755</v>
+        <v>656</v>
       </c>
       <c r="G2" t="s">
-        <v>855</v>
+        <v>754</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B3" t="s">
-        <v>573</v>
+        <v>474</v>
       </c>
       <c r="D3" t="s">
-        <v>679</v>
+        <v>580</v>
       </c>
       <c r="E3" t="s">
-        <v>703</v>
+        <v>604</v>
       </c>
       <c r="F3" t="s">
-        <v>756</v>
+        <v>657</v>
       </c>
       <c r="G3" t="s">
-        <v>856</v>
+        <v>755</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B4" t="s">
+        <v>475</v>
+      </c>
+      <c r="C4" t="s">
         <v>574</v>
       </c>
-      <c r="C4" t="s">
-        <v>673</v>
-      </c>
       <c r="D4" t="s">
-        <v>680</v>
+        <v>581</v>
       </c>
       <c r="E4" t="s">
         <v>441</v>
       </c>
       <c r="F4" t="s">
-        <v>757</v>
+        <v>658</v>
       </c>
       <c r="G4" t="s">
-        <v>857</v>
+        <v>756</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>933</v>
+        <v>832</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="B5" t="s">
+        <v>476</v>
+      </c>
+      <c r="C5" t="s">
         <v>575</v>
       </c>
-      <c r="C5" t="s">
-        <v>674</v>
-      </c>
       <c r="D5" t="s">
-        <v>678</v>
+        <v>579</v>
       </c>
       <c r="E5" t="s">
-        <v>704</v>
+        <v>605</v>
       </c>
       <c r="F5" t="s">
-        <v>758</v>
+        <v>659</v>
       </c>
       <c r="G5" t="s">
-        <v>858</v>
+        <v>757</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="2" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="B6" t="s">
+        <v>477</v>
+      </c>
+      <c r="C6" t="s">
         <v>576</v>
       </c>
-      <c r="C6" t="s">
-        <v>675</v>
-      </c>
       <c r="D6" t="s">
-        <v>681</v>
+        <v>582</v>
       </c>
       <c r="E6" t="s">
         <v>451</v>
       </c>
       <c r="F6" t="s">
-        <v>759</v>
+        <v>660</v>
       </c>
       <c r="G6" t="s">
-        <v>859</v>
+        <v>758</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="2" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="B7" t="s">
-        <v>577</v>
+        <v>478</v>
       </c>
       <c r="C7" t="s">
-        <v>672</v>
+        <v>573</v>
       </c>
       <c r="D7" t="s">
-        <v>682</v>
+        <v>583</v>
       </c>
       <c r="E7" t="s">
-        <v>705</v>
+        <v>606</v>
       </c>
       <c r="F7" t="s">
-        <v>760</v>
+        <v>661</v>
       </c>
       <c r="G7" t="s">
-        <v>860</v>
+        <v>759</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="2" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="B8" t="s">
-        <v>578</v>
+        <v>479</v>
       </c>
       <c r="D8" t="s">
-        <v>682</v>
+        <v>583</v>
       </c>
       <c r="E8" t="s">
-        <v>706</v>
+        <v>607</v>
       </c>
       <c r="F8" t="s">
-        <v>761</v>
+        <v>662</v>
       </c>
       <c r="G8" t="s">
-        <v>861</v>
+        <v>760</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>934</v>
+        <v>833</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="2" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="B9" t="s">
-        <v>579</v>
+        <v>480</v>
       </c>
       <c r="C9" t="s">
-        <v>672</v>
+        <v>573</v>
       </c>
       <c r="D9" t="s">
-        <v>683</v>
+        <v>584</v>
       </c>
       <c r="E9" t="s">
-        <v>707</v>
+        <v>608</v>
       </c>
       <c r="F9" t="s">
-        <v>762</v>
+        <v>663</v>
       </c>
       <c r="G9" t="s">
-        <v>862</v>
+        <v>761</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="2" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="B10" t="s">
-        <v>580</v>
+        <v>481</v>
       </c>
       <c r="C10" t="s">
-        <v>675</v>
+        <v>576</v>
       </c>
       <c r="D10" t="s">
-        <v>684</v>
+        <v>585</v>
       </c>
       <c r="E10" t="s">
-        <v>708</v>
+        <v>609</v>
       </c>
       <c r="F10" t="s">
-        <v>763</v>
+        <v>664</v>
       </c>
       <c r="G10" t="s">
-        <v>863</v>
+        <v>762</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="2" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="B11" t="s">
-        <v>581</v>
+        <v>482</v>
       </c>
       <c r="C11" t="s">
-        <v>672</v>
+        <v>573</v>
       </c>
       <c r="D11" t="s">
-        <v>682</v>
+        <v>583</v>
       </c>
       <c r="E11" t="s">
-        <v>709</v>
+        <v>610</v>
       </c>
       <c r="F11" t="s">
-        <v>764</v>
+        <v>665</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="2" t="s">
-        <v>482</v>
+        <v>472</v>
       </c>
       <c r="B12" t="s">
-        <v>582</v>
+        <v>483</v>
       </c>
       <c r="C12" t="s">
-        <v>675</v>
+        <v>576</v>
       </c>
       <c r="D12" t="s">
-        <v>685</v>
+        <v>586</v>
       </c>
       <c r="E12" t="s">
-        <v>710</v>
+        <v>611</v>
       </c>
       <c r="F12" t="s">
-        <v>765</v>
+        <v>666</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="2" t="s">
-        <v>483</v>
+        <v>472</v>
       </c>
       <c r="B13" t="s">
-        <v>583</v>
+        <v>484</v>
       </c>
       <c r="C13" t="s">
-        <v>672</v>
+        <v>573</v>
       </c>
       <c r="D13" t="s">
-        <v>686</v>
+        <v>587</v>
       </c>
       <c r="E13" t="s">
-        <v>711</v>
+        <v>612</v>
       </c>
       <c r="F13" t="s">
-        <v>766</v>
+        <v>667</v>
       </c>
       <c r="G13" t="s">
-        <v>864</v>
+        <v>763</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>935</v>
+        <v>834</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="2" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
       <c r="B14" t="s">
-        <v>584</v>
+        <v>485</v>
       </c>
       <c r="D14" t="s">
-        <v>687</v>
+        <v>588</v>
       </c>
       <c r="E14" t="s">
-        <v>712</v>
+        <v>613</v>
       </c>
       <c r="F14" t="s">
-        <v>767</v>
+        <v>668</v>
       </c>
       <c r="G14" t="s">
-        <v>865</v>
+        <v>764</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="2" t="s">
-        <v>485</v>
+        <v>472</v>
       </c>
       <c r="B15" t="s">
-        <v>585</v>
+        <v>486</v>
       </c>
       <c r="C15" t="s">
-        <v>674</v>
+        <v>575</v>
       </c>
       <c r="D15" t="s">
-        <v>688</v>
+        <v>589</v>
       </c>
       <c r="E15" t="s">
-        <v>713</v>
+        <v>614</v>
       </c>
       <c r="F15" t="s">
-        <v>768</v>
+        <v>669</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="2" t="s">
-        <v>486</v>
+        <v>472</v>
       </c>
       <c r="B16" t="s">
-        <v>586</v>
+        <v>487</v>
       </c>
       <c r="D16" t="s">
-        <v>682</v>
+        <v>583</v>
       </c>
       <c r="E16" t="s">
-        <v>714</v>
+        <v>615</v>
       </c>
       <c r="F16" t="s">
-        <v>769</v>
+        <v>670</v>
       </c>
       <c r="G16" t="s">
-        <v>866</v>
+        <v>765</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="2" t="s">
-        <v>487</v>
+        <v>472</v>
       </c>
       <c r="B17" t="s">
-        <v>587</v>
+        <v>488</v>
       </c>
       <c r="C17" t="s">
-        <v>674</v>
+        <v>575</v>
       </c>
       <c r="D17" t="s">
-        <v>689</v>
+        <v>590</v>
       </c>
       <c r="E17" t="s">
-        <v>715</v>
+        <v>616</v>
       </c>
       <c r="F17" t="s">
-        <v>770</v>
+        <v>671</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="2" t="s">
-        <v>488</v>
+        <v>472</v>
       </c>
       <c r="B18" t="s">
-        <v>588</v>
+        <v>489</v>
       </c>
       <c r="C18" t="s">
-        <v>675</v>
+        <v>576</v>
       </c>
       <c r="D18" t="s">
-        <v>690</v>
+        <v>591</v>
       </c>
       <c r="E18" t="s">
         <v>453</v>
       </c>
       <c r="F18" t="s">
-        <v>771</v>
+        <v>672</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="2" t="s">
-        <v>489</v>
+        <v>472</v>
       </c>
       <c r="B19" t="s">
-        <v>589</v>
+        <v>490</v>
       </c>
       <c r="C19" t="s">
-        <v>672</v>
+        <v>573</v>
       </c>
       <c r="D19" t="s">
-        <v>678</v>
+        <v>579</v>
       </c>
       <c r="E19" t="s">
-        <v>716</v>
+        <v>617</v>
       </c>
       <c r="F19" t="s">
-        <v>772</v>
+        <v>673</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="2" t="s">
-        <v>490</v>
+        <v>472</v>
       </c>
       <c r="B20" t="s">
-        <v>590</v>
+        <v>491</v>
       </c>
       <c r="D20" t="s">
-        <v>679</v>
+        <v>580</v>
       </c>
       <c r="E20" t="s">
         <v>420</v>
       </c>
       <c r="F20" t="s">
-        <v>773</v>
+        <v>674</v>
       </c>
       <c r="G20" t="s">
-        <v>867</v>
+        <v>766</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="2" t="s">
-        <v>491</v>
+        <v>472</v>
       </c>
       <c r="B21" t="s">
-        <v>591</v>
+        <v>492</v>
       </c>
       <c r="C21" t="s">
-        <v>672</v>
+        <v>573</v>
       </c>
       <c r="D21" t="s">
-        <v>691</v>
+        <v>592</v>
       </c>
       <c r="E21" t="s">
-        <v>717</v>
+        <v>618</v>
       </c>
       <c r="F21" t="s">
-        <v>774</v>
+        <v>675</v>
       </c>
       <c r="G21" t="s">
-        <v>868</v>
+        <v>767</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="2" t="s">
-        <v>492</v>
+        <v>472</v>
       </c>
       <c r="B22" t="s">
-        <v>592</v>
+        <v>493</v>
       </c>
       <c r="D22" t="s">
-        <v>692</v>
+        <v>593</v>
       </c>
       <c r="E22" t="s">
-        <v>718</v>
+        <v>619</v>
       </c>
       <c r="F22" t="s">
-        <v>775</v>
+        <v>676</v>
       </c>
       <c r="G22" t="s">
-        <v>869</v>
+        <v>768</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>936</v>
+        <v>835</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="2" t="s">
-        <v>493</v>
+        <v>472</v>
       </c>
       <c r="B23" t="s">
-        <v>593</v>
+        <v>494</v>
       </c>
       <c r="D23" t="s">
-        <v>679</v>
+        <v>580</v>
       </c>
       <c r="E23" t="s">
         <v>447</v>
       </c>
       <c r="F23" t="s">
-        <v>776</v>
+        <v>677</v>
       </c>
       <c r="G23" t="s">
-        <v>870</v>
+        <v>769</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="2" t="s">
-        <v>494</v>
+        <v>472</v>
       </c>
       <c r="B24" t="s">
-        <v>594</v>
+        <v>495</v>
       </c>
       <c r="C24" t="s">
-        <v>672</v>
+        <v>573</v>
       </c>
       <c r="D24" t="s">
-        <v>690</v>
+        <v>591</v>
       </c>
       <c r="E24" t="s">
         <v>420</v>
       </c>
       <c r="F24" t="s">
-        <v>777</v>
+        <v>678</v>
       </c>
       <c r="G24" t="s">
-        <v>871</v>
+        <v>770</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="2" t="s">
-        <v>495</v>
+        <v>472</v>
       </c>
       <c r="B25" t="s">
-        <v>595</v>
+        <v>496</v>
       </c>
       <c r="C25" t="s">
-        <v>672</v>
+        <v>573</v>
       </c>
       <c r="D25" t="s">
-        <v>691</v>
+        <v>592</v>
       </c>
       <c r="E25" t="s">
-        <v>719</v>
+        <v>620</v>
       </c>
       <c r="F25" t="s">
-        <v>778</v>
+        <v>679</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>937</v>
+        <v>836</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="2" t="s">
-        <v>496</v>
+        <v>472</v>
       </c>
       <c r="B26" t="s">
-        <v>596</v>
+        <v>497</v>
       </c>
       <c r="C26" t="s">
-        <v>672</v>
+        <v>573</v>
       </c>
       <c r="D26" t="s">
-        <v>693</v>
+        <v>594</v>
       </c>
       <c r="E26" t="s">
-        <v>720</v>
+        <v>621</v>
       </c>
       <c r="F26" t="s">
-        <v>779</v>
+        <v>680</v>
       </c>
       <c r="G26" t="s">
-        <v>872</v>
+        <v>771</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="2" t="s">
-        <v>497</v>
+        <v>472</v>
       </c>
       <c r="B27" t="s">
-        <v>597</v>
+        <v>498</v>
       </c>
       <c r="C27" t="s">
-        <v>674</v>
+        <v>575</v>
       </c>
       <c r="D27" t="s">
-        <v>682</v>
+        <v>583</v>
       </c>
       <c r="E27" t="s">
-        <v>721</v>
+        <v>622</v>
       </c>
       <c r="F27" t="s">
-        <v>780</v>
+        <v>681</v>
       </c>
       <c r="G27" t="s">
-        <v>873</v>
+        <v>772</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="2" t="s">
-        <v>498</v>
+        <v>472</v>
       </c>
       <c r="B28" t="s">
-        <v>598</v>
+        <v>499</v>
       </c>
       <c r="C28" t="s">
-        <v>672</v>
+        <v>573</v>
       </c>
       <c r="D28" t="s">
-        <v>694</v>
+        <v>595</v>
       </c>
       <c r="E28" t="s">
-        <v>722</v>
+        <v>623</v>
       </c>
       <c r="F28" t="s">
-        <v>781</v>
+        <v>682</v>
       </c>
       <c r="G28" t="s">
-        <v>874</v>
+        <v>773</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>938</v>
+        <v>837</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="2" t="s">
-        <v>499</v>
+        <v>472</v>
       </c>
       <c r="B29" t="s">
-        <v>599</v>
+        <v>500</v>
       </c>
       <c r="D29" t="s">
-        <v>694</v>
+        <v>595</v>
       </c>
       <c r="E29" t="s">
         <v>421</v>
       </c>
       <c r="F29" t="s">
-        <v>782</v>
+        <v>683</v>
       </c>
       <c r="G29" t="s">
-        <v>875</v>
+        <v>774</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="2" t="s">
-        <v>500</v>
+        <v>472</v>
       </c>
       <c r="B30" t="s">
-        <v>600</v>
+        <v>501</v>
       </c>
       <c r="C30" t="s">
-        <v>672</v>
+        <v>573</v>
       </c>
       <c r="D30" t="s">
-        <v>683</v>
+        <v>584</v>
       </c>
       <c r="E30" t="s">
-        <v>709</v>
+        <v>610</v>
       </c>
       <c r="F30" t="s">
-        <v>783</v>
+        <v>684</v>
       </c>
       <c r="G30" t="s">
-        <v>876</v>
+        <v>775</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="2" t="s">
-        <v>501</v>
+        <v>472</v>
       </c>
       <c r="B31" t="s">
-        <v>601</v>
+        <v>502</v>
       </c>
       <c r="D31" t="s">
-        <v>683</v>
+        <v>584</v>
       </c>
       <c r="E31" t="s">
-        <v>723</v>
+        <v>624</v>
       </c>
       <c r="F31" t="s">
-        <v>784</v>
+        <v>685</v>
       </c>
       <c r="G31" t="s">
-        <v>877</v>
+        <v>776</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>939</v>
+        <v>838</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="2" t="s">
-        <v>502</v>
+        <v>472</v>
       </c>
       <c r="B32" t="s">
-        <v>602</v>
+        <v>503</v>
       </c>
       <c r="C32" t="s">
-        <v>676</v>
+        <v>577</v>
       </c>
       <c r="D32" t="s">
-        <v>693</v>
+        <v>594</v>
       </c>
       <c r="E32" t="s">
-        <v>724</v>
+        <v>625</v>
       </c>
       <c r="F32" t="s">
-        <v>785</v>
+        <v>686</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="2" t="s">
-        <v>503</v>
+        <v>472</v>
       </c>
       <c r="B33" t="s">
-        <v>603</v>
+        <v>504</v>
       </c>
       <c r="D33" t="s">
-        <v>690</v>
+        <v>591</v>
       </c>
       <c r="E33" t="s">
         <v>462</v>
       </c>
       <c r="F33" t="s">
-        <v>786</v>
+        <v>687</v>
       </c>
       <c r="G33" t="s">
-        <v>878</v>
+        <v>777</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="2" t="s">
-        <v>504</v>
+        <v>472</v>
       </c>
       <c r="B34" t="s">
-        <v>604</v>
+        <v>505</v>
       </c>
       <c r="C34" t="s">
-        <v>672</v>
+        <v>573</v>
       </c>
       <c r="D34" t="s">
-        <v>695</v>
+        <v>596</v>
       </c>
       <c r="E34" t="s">
         <v>430</v>
       </c>
       <c r="F34" t="s">
-        <v>787</v>
+        <v>688</v>
       </c>
       <c r="G34" t="s">
-        <v>879</v>
+        <v>778</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="2" t="s">
-        <v>505</v>
+        <v>472</v>
       </c>
       <c r="B35" t="s">
-        <v>605</v>
+        <v>506</v>
       </c>
       <c r="C35" t="s">
-        <v>672</v>
+        <v>573</v>
       </c>
       <c r="D35" t="s">
-        <v>696</v>
+        <v>597</v>
       </c>
       <c r="E35" t="s">
         <v>419</v>
       </c>
       <c r="F35" t="s">
-        <v>788</v>
+        <v>689</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="2" t="s">
-        <v>506</v>
+        <v>472</v>
       </c>
       <c r="B36" t="s">
-        <v>606</v>
+        <v>507</v>
       </c>
       <c r="C36" t="s">
-        <v>676</v>
+        <v>577</v>
       </c>
       <c r="D36" t="s">
-        <v>690</v>
+        <v>591</v>
       </c>
       <c r="E36" t="s">
         <v>428</v>
       </c>
       <c r="F36" t="s">
-        <v>789</v>
+        <v>690</v>
       </c>
       <c r="G36" t="s">
-        <v>880</v>
+        <v>779</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="2" t="s">
-        <v>507</v>
+        <v>472</v>
       </c>
       <c r="B37" t="s">
-        <v>607</v>
+        <v>508</v>
       </c>
       <c r="C37" t="s">
-        <v>672</v>
+        <v>573</v>
       </c>
       <c r="D37" t="s">
-        <v>690</v>
+        <v>591</v>
       </c>
       <c r="E37" t="s">
-        <v>725</v>
+        <v>626</v>
       </c>
       <c r="F37" t="s">
-        <v>790</v>
+        <v>691</v>
       </c>
       <c r="G37" t="s">
-        <v>881</v>
+        <v>780</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="2" t="s">
-        <v>508</v>
+        <v>472</v>
       </c>
       <c r="B38" t="s">
-        <v>608</v>
+        <v>509</v>
       </c>
       <c r="C38" t="s">
-        <v>673</v>
+        <v>574</v>
       </c>
       <c r="D38" t="s">
-        <v>680</v>
+        <v>581</v>
       </c>
       <c r="E38" t="s">
-        <v>726</v>
+        <v>627</v>
       </c>
       <c r="F38" t="s">
-        <v>791</v>
+        <v>692</v>
       </c>
       <c r="G38" t="s">
-        <v>882</v>
+        <v>781</v>
       </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="2" t="s">
-        <v>509</v>
+        <v>472</v>
       </c>
       <c r="B39" t="s">
-        <v>609</v>
+        <v>510</v>
       </c>
       <c r="C39" t="s">
-        <v>675</v>
+        <v>576</v>
       </c>
       <c r="D39" t="s">
-        <v>696</v>
+        <v>597</v>
       </c>
       <c r="E39" t="s">
-        <v>709</v>
+        <v>610</v>
       </c>
       <c r="F39" t="s">
-        <v>792</v>
+        <v>693</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="2" t="s">
-        <v>510</v>
+        <v>472</v>
       </c>
       <c r="B40" t="s">
-        <v>610</v>
+        <v>511</v>
       </c>
       <c r="D40" t="s">
-        <v>679</v>
+        <v>580</v>
       </c>
       <c r="E40" t="s">
         <v>455</v>
       </c>
       <c r="F40" t="s">
-        <v>793</v>
+        <v>694</v>
       </c>
       <c r="G40" t="s">
-        <v>883</v>
+        <v>782</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="2" t="s">
-        <v>511</v>
+        <v>472</v>
       </c>
       <c r="B41" t="s">
-        <v>611</v>
+        <v>512</v>
       </c>
       <c r="C41" t="s">
-        <v>672</v>
+        <v>573</v>
       </c>
       <c r="D41" t="s">
-        <v>678</v>
+        <v>579</v>
       </c>
       <c r="E41" t="s">
         <v>428</v>
       </c>
       <c r="F41" t="s">
-        <v>794</v>
+        <v>695</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="2" t="s">
-        <v>512</v>
+        <v>472</v>
       </c>
       <c r="B42" t="s">
-        <v>612</v>
+        <v>513</v>
       </c>
       <c r="C42" t="s">
-        <v>672</v>
+        <v>573</v>
       </c>
       <c r="D42" t="s">
-        <v>680</v>
+        <v>581</v>
       </c>
       <c r="E42" t="s">
-        <v>727</v>
+        <v>628</v>
       </c>
       <c r="F42" t="s">
-        <v>795</v>
+        <v>696</v>
       </c>
       <c r="G42" t="s">
-        <v>884</v>
+        <v>783</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>940</v>
+        <v>839</v>
       </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="2" t="s">
-        <v>513</v>
+        <v>472</v>
       </c>
       <c r="B43" t="s">
-        <v>613</v>
+        <v>514</v>
       </c>
       <c r="C43" t="s">
-        <v>672</v>
+        <v>573</v>
       </c>
       <c r="D43" t="s">
-        <v>693</v>
+        <v>594</v>
       </c>
       <c r="E43" t="s">
-        <v>720</v>
+        <v>621</v>
       </c>
       <c r="F43" t="s">
-        <v>796</v>
+        <v>697</v>
       </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="2" t="s">
-        <v>514</v>
+        <v>472</v>
       </c>
       <c r="B44" t="s">
-        <v>614</v>
+        <v>515</v>
       </c>
       <c r="C44" t="s">
-        <v>672</v>
+        <v>573</v>
       </c>
       <c r="D44" t="s">
-        <v>683</v>
+        <v>584</v>
       </c>
       <c r="E44" t="s">
-        <v>728</v>
+        <v>629</v>
       </c>
       <c r="F44" t="s">
-        <v>797</v>
+        <v>698</v>
       </c>
       <c r="G44" t="s">
-        <v>885</v>
+        <v>784</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>941</v>
+        <v>837</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="2" t="s">
-        <v>515</v>
+        <v>472</v>
       </c>
       <c r="B45" t="s">
-        <v>615</v>
+        <v>516</v>
       </c>
       <c r="C45" t="s">
-        <v>672</v>
+        <v>573</v>
       </c>
       <c r="D45" t="s">
-        <v>681</v>
+        <v>582</v>
       </c>
       <c r="E45" t="s">
         <v>436</v>
       </c>
       <c r="F45" t="s">
-        <v>798</v>
+        <v>699</v>
       </c>
       <c r="G45" t="s">
-        <v>886</v>
+        <v>785</v>
       </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="2" t="s">
-        <v>516</v>
+        <v>472</v>
       </c>
       <c r="B46" t="s">
-        <v>616</v>
+        <v>517</v>
       </c>
       <c r="C46" t="s">
-        <v>672</v>
+        <v>573</v>
       </c>
       <c r="D46" t="s">
-        <v>680</v>
+        <v>581</v>
       </c>
       <c r="E46" t="s">
         <v>451</v>
       </c>
       <c r="F46" t="s">
-        <v>799</v>
+        <v>700</v>
       </c>
       <c r="G46" t="s">
-        <v>887</v>
+        <v>786</v>
       </c>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="2" t="s">
-        <v>517</v>
+        <v>472</v>
       </c>
       <c r="B47" t="s">
-        <v>617</v>
+        <v>518</v>
       </c>
       <c r="D47" t="s">
-        <v>687</v>
+        <v>588</v>
       </c>
       <c r="E47" t="s">
-        <v>729</v>
+        <v>630</v>
       </c>
       <c r="F47" t="s">
-        <v>800</v>
+        <v>701</v>
       </c>
       <c r="G47" t="s">
-        <v>888</v>
+        <v>787</v>
       </c>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="2" t="s">
-        <v>518</v>
+        <v>472</v>
       </c>
       <c r="B48" t="s">
-        <v>618</v>
+        <v>519</v>
       </c>
       <c r="C48" t="s">
-        <v>674</v>
+        <v>575</v>
       </c>
       <c r="D48" t="s">
-        <v>680</v>
+        <v>581</v>
       </c>
       <c r="E48" t="s">
-        <v>730</v>
+        <v>631</v>
       </c>
       <c r="F48" t="s">
-        <v>801</v>
+        <v>702</v>
       </c>
       <c r="G48" t="s">
-        <v>889</v>
+        <v>788</v>
       </c>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="2" t="s">
-        <v>519</v>
+        <v>472</v>
       </c>
       <c r="B49" t="s">
-        <v>619</v>
+        <v>520</v>
       </c>
       <c r="C49" t="s">
-        <v>672</v>
+        <v>573</v>
       </c>
       <c r="D49" t="s">
-        <v>691</v>
+        <v>592</v>
       </c>
       <c r="E49" t="s">
-        <v>731</v>
+        <v>632</v>
       </c>
       <c r="F49" t="s">
-        <v>802</v>
+        <v>703</v>
       </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="2" t="s">
-        <v>520</v>
+        <v>472</v>
       </c>
       <c r="B50" t="s">
-        <v>620</v>
+        <v>521</v>
       </c>
       <c r="C50" t="s">
-        <v>676</v>
+        <v>577</v>
       </c>
       <c r="D50" t="s">
-        <v>678</v>
+        <v>579</v>
       </c>
       <c r="E50" t="s">
-        <v>720</v>
+        <v>621</v>
       </c>
       <c r="F50" t="s">
-        <v>803</v>
+        <v>704</v>
       </c>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="2" t="s">
-        <v>521</v>
+        <v>472</v>
       </c>
       <c r="B51" t="s">
-        <v>621</v>
+        <v>522</v>
       </c>
       <c r="C51" t="s">
-        <v>673</v>
+        <v>574</v>
       </c>
       <c r="D51" t="s">
-        <v>684</v>
+        <v>585</v>
       </c>
       <c r="E51" t="s">
-        <v>732</v>
+        <v>633</v>
       </c>
       <c r="F51" t="s">
-        <v>804</v>
+        <v>705</v>
       </c>
       <c r="G51" t="s">
-        <v>890</v>
+        <v>789</v>
       </c>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="2" t="s">
-        <v>522</v>
+        <v>472</v>
       </c>
       <c r="B52" t="s">
-        <v>622</v>
+        <v>523</v>
       </c>
       <c r="D52" t="s">
-        <v>693</v>
+        <v>594</v>
       </c>
       <c r="E52" t="s">
-        <v>710</v>
+        <v>611</v>
       </c>
       <c r="F52" t="s">
-        <v>805</v>
+        <v>706</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>942</v>
+        <v>840</v>
       </c>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="2" t="s">
-        <v>523</v>
+        <v>472</v>
       </c>
       <c r="B53" t="s">
-        <v>623</v>
+        <v>524</v>
       </c>
       <c r="C53" t="s">
-        <v>674</v>
+        <v>575</v>
       </c>
       <c r="D53" t="s">
-        <v>693</v>
+        <v>594</v>
       </c>
       <c r="E53" t="s">
-        <v>720</v>
+        <v>621</v>
       </c>
       <c r="F53" t="s">
-        <v>806</v>
+        <v>707</v>
       </c>
       <c r="G53" t="s">
-        <v>891</v>
+        <v>790</v>
       </c>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="2" t="s">
-        <v>524</v>
+        <v>472</v>
       </c>
       <c r="B54" t="s">
-        <v>624</v>
+        <v>525</v>
       </c>
       <c r="C54" t="s">
-        <v>672</v>
+        <v>573</v>
       </c>
       <c r="D54" t="s">
-        <v>683</v>
+        <v>584</v>
       </c>
       <c r="E54" t="s">
-        <v>733</v>
+        <v>634</v>
       </c>
       <c r="F54" t="s">
-        <v>807</v>
+        <v>708</v>
       </c>
       <c r="G54" t="s">
-        <v>892</v>
+        <v>791</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>943</v>
+        <v>834</v>
       </c>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="2" t="s">
-        <v>525</v>
+        <v>472</v>
       </c>
       <c r="B55" t="s">
-        <v>625</v>
+        <v>526</v>
       </c>
       <c r="C55" t="s">
-        <v>675</v>
+        <v>576</v>
       </c>
       <c r="D55" t="s">
-        <v>694</v>
+        <v>595</v>
       </c>
       <c r="E55" t="s">
         <v>446</v>
       </c>
       <c r="F55" t="s">
-        <v>808</v>
+        <v>709</v>
       </c>
       <c r="G55" t="s">
-        <v>893</v>
+        <v>792</v>
       </c>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="2" t="s">
-        <v>526</v>
+        <v>472</v>
       </c>
       <c r="B56" t="s">
-        <v>626</v>
+        <v>527</v>
       </c>
       <c r="C56" t="s">
-        <v>672</v>
+        <v>573</v>
       </c>
       <c r="D56" t="s">
-        <v>690</v>
+        <v>591</v>
       </c>
       <c r="E56" t="s">
-        <v>734</v>
+        <v>635</v>
       </c>
       <c r="F56" t="s">
-        <v>809</v>
+        <v>710</v>
       </c>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="2" t="s">
-        <v>527</v>
+        <v>472</v>
       </c>
       <c r="B57" t="s">
-        <v>627</v>
+        <v>528</v>
       </c>
       <c r="D57" t="s">
-        <v>692</v>
+        <v>593</v>
       </c>
       <c r="E57" t="s">
-        <v>735</v>
+        <v>636</v>
       </c>
       <c r="F57" t="s">
-        <v>810</v>
+        <v>711</v>
       </c>
       <c r="G57" t="s">
-        <v>894</v>
+        <v>793</v>
       </c>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="2" t="s">
-        <v>528</v>
+        <v>472</v>
       </c>
       <c r="B58" t="s">
-        <v>628</v>
+        <v>529</v>
       </c>
       <c r="C58" t="s">
-        <v>672</v>
+        <v>573</v>
       </c>
       <c r="D58" t="s">
-        <v>680</v>
+        <v>581</v>
       </c>
       <c r="E58" t="s">
         <v>428</v>
       </c>
       <c r="F58" t="s">
-        <v>811</v>
+        <v>712</v>
       </c>
       <c r="G58" t="s">
-        <v>895</v>
+        <v>794</v>
       </c>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="2" t="s">
-        <v>529</v>
+        <v>472</v>
       </c>
       <c r="B59" t="s">
-        <v>629</v>
+        <v>530</v>
       </c>
       <c r="C59" t="s">
-        <v>677</v>
+        <v>578</v>
       </c>
       <c r="D59" t="s">
-        <v>691</v>
+        <v>592</v>
       </c>
       <c r="E59" t="s">
         <v>451</v>
       </c>
       <c r="F59" t="s">
-        <v>812</v>
+        <v>713</v>
       </c>
       <c r="G59" t="s">
-        <v>896</v>
+        <v>795</v>
       </c>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="2" t="s">
-        <v>530</v>
+        <v>472</v>
       </c>
       <c r="B60" t="s">
-        <v>630</v>
+        <v>531</v>
       </c>
       <c r="C60" t="s">
-        <v>672</v>
+        <v>573</v>
       </c>
       <c r="D60" t="s">
-        <v>682</v>
+        <v>583</v>
       </c>
       <c r="E60" t="s">
         <v>457</v>
       </c>
       <c r="F60" t="s">
-        <v>813</v>
+        <v>714</v>
       </c>
       <c r="G60" t="s">
-        <v>897</v>
+        <v>796</v>
       </c>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="2" t="s">
-        <v>531</v>
+        <v>472</v>
       </c>
       <c r="B61" t="s">
-        <v>631</v>
+        <v>532</v>
       </c>
       <c r="C61" t="s">
-        <v>674</v>
+        <v>575</v>
       </c>
       <c r="D61" t="s">
-        <v>682</v>
+        <v>583</v>
       </c>
       <c r="E61" t="s">
-        <v>736</v>
+        <v>637</v>
       </c>
       <c r="F61" t="s">
-        <v>814</v>
+        <v>715</v>
       </c>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="2" t="s">
-        <v>532</v>
+        <v>472</v>
       </c>
       <c r="B62" t="s">
-        <v>632</v>
+        <v>533</v>
       </c>
       <c r="D62" t="s">
-        <v>687</v>
+        <v>588</v>
       </c>
       <c r="E62" t="s">
-        <v>737</v>
+        <v>638</v>
       </c>
       <c r="F62" t="s">
-        <v>815</v>
+        <v>716</v>
       </c>
       <c r="G62" t="s">
-        <v>898</v>
+        <v>797</v>
       </c>
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="2" t="s">
-        <v>533</v>
+        <v>472</v>
       </c>
       <c r="B63" t="s">
-        <v>633</v>
+        <v>534</v>
       </c>
       <c r="C63" t="s">
-        <v>674</v>
+        <v>575</v>
       </c>
       <c r="D63" t="s">
-        <v>692</v>
+        <v>593</v>
       </c>
       <c r="E63" t="s">
         <v>441</v>
       </c>
       <c r="F63" t="s">
-        <v>816</v>
+        <v>717</v>
       </c>
       <c r="G63" t="s">
-        <v>899</v>
+        <v>798</v>
       </c>
     </row>
     <row r="64" spans="1:8">
       <c r="A64" s="2" t="s">
-        <v>534</v>
+        <v>472</v>
       </c>
       <c r="B64" t="s">
-        <v>634</v>
+        <v>535</v>
       </c>
       <c r="D64" t="s">
-        <v>697</v>
+        <v>598</v>
       </c>
       <c r="E64" t="s">
-        <v>738</v>
+        <v>639</v>
       </c>
       <c r="F64" t="s">
-        <v>817</v>
+        <v>718</v>
       </c>
       <c r="G64" t="s">
-        <v>900</v>
+        <v>799</v>
       </c>
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="2" t="s">
-        <v>535</v>
+        <v>472</v>
       </c>
       <c r="B65" t="s">
-        <v>635</v>
+        <v>536</v>
       </c>
       <c r="C65" t="s">
-        <v>672</v>
+        <v>573</v>
       </c>
       <c r="D65" t="s">
-        <v>698</v>
+        <v>599</v>
       </c>
       <c r="E65" t="s">
-        <v>739</v>
+        <v>640</v>
       </c>
       <c r="F65" t="s">
-        <v>818</v>
+        <v>719</v>
       </c>
       <c r="G65" t="s">
-        <v>901</v>
+        <v>800</v>
       </c>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="2" t="s">
-        <v>536</v>
+        <v>472</v>
       </c>
       <c r="B66" t="s">
-        <v>636</v>
+        <v>537</v>
       </c>
       <c r="D66" t="s">
-        <v>680</v>
+        <v>581</v>
       </c>
       <c r="E66" t="s">
-        <v>716</v>
+        <v>617</v>
       </c>
       <c r="F66" t="s">
-        <v>819</v>
+        <v>720</v>
       </c>
       <c r="G66" t="s">
-        <v>902</v>
+        <v>801</v>
       </c>
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="2" t="s">
-        <v>537</v>
+        <v>472</v>
       </c>
       <c r="B67" t="s">
-        <v>637</v>
+        <v>538</v>
       </c>
       <c r="C67" t="s">
-        <v>675</v>
+        <v>576</v>
       </c>
       <c r="D67" t="s">
-        <v>693</v>
+        <v>594</v>
       </c>
       <c r="E67" t="s">
-        <v>720</v>
+        <v>621</v>
       </c>
       <c r="F67" t="s">
-        <v>820</v>
+        <v>721</v>
       </c>
       <c r="G67" t="s">
-        <v>903</v>
+        <v>802</v>
       </c>
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="2" t="s">
-        <v>538</v>
+        <v>472</v>
       </c>
       <c r="B68" t="s">
-        <v>638</v>
+        <v>539</v>
       </c>
       <c r="C68" t="s">
-        <v>672</v>
+        <v>573</v>
       </c>
       <c r="D68" t="s">
-        <v>680</v>
+        <v>581</v>
       </c>
       <c r="E68" t="s">
-        <v>740</v>
+        <v>641</v>
       </c>
       <c r="F68" t="s">
-        <v>821</v>
+        <v>722</v>
       </c>
       <c r="G68" t="s">
-        <v>904</v>
+        <v>803</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>944</v>
+        <v>836</v>
       </c>
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="2" t="s">
-        <v>539</v>
+        <v>472</v>
       </c>
       <c r="B69" t="s">
-        <v>639</v>
+        <v>540</v>
       </c>
       <c r="C69" t="s">
-        <v>675</v>
+        <v>576</v>
       </c>
       <c r="D69" t="s">
-        <v>699</v>
+        <v>600</v>
       </c>
       <c r="E69" t="s">
         <v>418</v>
       </c>
       <c r="F69" t="s">
-        <v>822</v>
+        <v>723</v>
       </c>
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="2" t="s">
-        <v>540</v>
+        <v>472</v>
       </c>
       <c r="B70" t="s">
-        <v>640</v>
+        <v>541</v>
       </c>
       <c r="C70" t="s">
-        <v>674</v>
+        <v>575</v>
       </c>
       <c r="D70" t="s">
-        <v>687</v>
+        <v>588</v>
       </c>
       <c r="E70" t="s">
         <v>430</v>
       </c>
       <c r="F70" t="s">
-        <v>823</v>
+        <v>724</v>
       </c>
       <c r="G70" t="s">
-        <v>905</v>
+        <v>804</v>
       </c>
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="2" t="s">
-        <v>541</v>
+        <v>472</v>
       </c>
       <c r="B71" t="s">
-        <v>641</v>
+        <v>542</v>
       </c>
       <c r="C71" t="s">
-        <v>672</v>
+        <v>573</v>
       </c>
       <c r="D71" t="s">
-        <v>683</v>
+        <v>584</v>
       </c>
       <c r="E71" t="s">
-        <v>704</v>
+        <v>605</v>
       </c>
       <c r="F71" t="s">
-        <v>824</v>
+        <v>725</v>
       </c>
       <c r="G71" t="s">
-        <v>906</v>
+        <v>805</v>
       </c>
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="2" t="s">
-        <v>542</v>
+        <v>472</v>
       </c>
       <c r="B72" t="s">
+        <v>543</v>
+      </c>
+      <c r="C72" t="s">
+        <v>575</v>
+      </c>
+      <c r="D72" t="s">
+        <v>587</v>
+      </c>
+      <c r="E72" t="s">
         <v>642</v>
       </c>
-      <c r="C72" t="s">
-        <v>674</v>
-      </c>
-      <c r="D72" t="s">
-        <v>686</v>
-      </c>
-      <c r="E72" t="s">
-        <v>741</v>
-      </c>
       <c r="F72" t="s">
-        <v>825</v>
+        <v>692</v>
       </c>
       <c r="G72" t="s">
-        <v>907</v>
+        <v>806</v>
       </c>
     </row>
     <row r="73" spans="1:8">
       <c r="A73" s="2" t="s">
-        <v>543</v>
+        <v>472</v>
       </c>
       <c r="B73" t="s">
+        <v>544</v>
+      </c>
+      <c r="C73" t="s">
+        <v>575</v>
+      </c>
+      <c r="D73" t="s">
+        <v>580</v>
+      </c>
+      <c r="E73" t="s">
         <v>643</v>
       </c>
-      <c r="C73" t="s">
-        <v>674</v>
-      </c>
-      <c r="D73" t="s">
-        <v>679</v>
-      </c>
-      <c r="E73" t="s">
-        <v>742</v>
-      </c>
       <c r="F73" t="s">
-        <v>826</v>
+        <v>726</v>
       </c>
       <c r="G73" t="s">
-        <v>908</v>
+        <v>807</v>
       </c>
     </row>
     <row r="74" spans="1:8">
       <c r="A74" s="2" t="s">
-        <v>544</v>
+        <v>472</v>
       </c>
       <c r="B74" t="s">
+        <v>545</v>
+      </c>
+      <c r="C74" t="s">
+        <v>573</v>
+      </c>
+      <c r="D74" t="s">
+        <v>583</v>
+      </c>
+      <c r="E74" t="s">
         <v>644</v>
       </c>
-      <c r="C74" t="s">
-        <v>672</v>
-      </c>
-      <c r="D74" t="s">
-        <v>682</v>
-      </c>
-      <c r="E74" t="s">
-        <v>743</v>
-      </c>
       <c r="F74" t="s">
-        <v>827</v>
+        <v>727</v>
       </c>
       <c r="G74" t="s">
-        <v>909</v>
+        <v>808</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>945</v>
+        <v>834</v>
       </c>
     </row>
     <row r="75" spans="1:8">
       <c r="A75" s="2" t="s">
-        <v>545</v>
+        <v>472</v>
       </c>
       <c r="B75" t="s">
-        <v>645</v>
+        <v>546</v>
       </c>
       <c r="C75" t="s">
-        <v>675</v>
+        <v>576</v>
       </c>
       <c r="D75" t="s">
-        <v>693</v>
+        <v>594</v>
       </c>
       <c r="E75" t="s">
-        <v>710</v>
+        <v>611</v>
       </c>
       <c r="F75" t="s">
-        <v>828</v>
+        <v>728</v>
       </c>
       <c r="G75" t="s">
-        <v>910</v>
+        <v>809</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>946</v>
+        <v>841</v>
       </c>
     </row>
     <row r="76" spans="1:8">
       <c r="A76" s="2" t="s">
-        <v>546</v>
+        <v>472</v>
       </c>
       <c r="B76" t="s">
-        <v>646</v>
+        <v>547</v>
       </c>
       <c r="C76" t="s">
-        <v>674</v>
+        <v>575</v>
       </c>
       <c r="D76" t="s">
-        <v>695</v>
+        <v>596</v>
       </c>
       <c r="E76" t="s">
         <v>440</v>
       </c>
       <c r="F76" t="s">
-        <v>829</v>
+        <v>729</v>
       </c>
       <c r="G76" t="s">
-        <v>911</v>
+        <v>810</v>
       </c>
     </row>
     <row r="77" spans="1:8">
       <c r="A77" s="2" t="s">
-        <v>547</v>
+        <v>472</v>
       </c>
       <c r="B77" t="s">
-        <v>647</v>
+        <v>548</v>
       </c>
       <c r="C77" t="s">
-        <v>674</v>
+        <v>575</v>
       </c>
       <c r="D77" t="s">
-        <v>681</v>
+        <v>582</v>
       </c>
       <c r="E77" t="s">
-        <v>744</v>
+        <v>645</v>
       </c>
       <c r="F77" t="s">
-        <v>830</v>
+        <v>730</v>
       </c>
       <c r="G77" t="s">
-        <v>912</v>
+        <v>811</v>
       </c>
     </row>
     <row r="78" spans="1:8">
       <c r="A78" s="2" t="s">
-        <v>548</v>
+        <v>472</v>
       </c>
       <c r="B78" t="s">
-        <v>648</v>
+        <v>549</v>
       </c>
       <c r="C78" t="s">
-        <v>673</v>
+        <v>574</v>
       </c>
       <c r="D78" t="s">
-        <v>688</v>
+        <v>589</v>
       </c>
       <c r="E78" t="s">
-        <v>715</v>
+        <v>616</v>
       </c>
       <c r="F78" t="s">
-        <v>831</v>
+        <v>731</v>
       </c>
       <c r="G78" t="s">
-        <v>913</v>
+        <v>812</v>
       </c>
     </row>
     <row r="79" spans="1:8">
       <c r="A79" s="2" t="s">
-        <v>549</v>
+        <v>472</v>
       </c>
       <c r="B79" t="s">
-        <v>649</v>
+        <v>550</v>
       </c>
       <c r="C79" t="s">
-        <v>674</v>
+        <v>575</v>
       </c>
       <c r="D79" t="s">
-        <v>681</v>
+        <v>582</v>
       </c>
       <c r="E79" t="s">
-        <v>745</v>
+        <v>646</v>
       </c>
       <c r="F79" t="s">
-        <v>832</v>
+        <v>732</v>
       </c>
       <c r="G79" t="s">
-        <v>914</v>
+        <v>813</v>
       </c>
     </row>
     <row r="80" spans="1:8">
       <c r="A80" s="2" t="s">
-        <v>550</v>
+        <v>472</v>
       </c>
       <c r="B80" t="s">
-        <v>650</v>
+        <v>551</v>
       </c>
       <c r="C80" t="s">
-        <v>674</v>
+        <v>575</v>
       </c>
       <c r="F80" t="s">
-        <v>833</v>
+        <v>733</v>
       </c>
       <c r="G80" t="s">
-        <v>915</v>
+        <v>814</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>947</v>
+        <v>842</v>
       </c>
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="2" t="s">
-        <v>551</v>
+        <v>472</v>
       </c>
       <c r="B81" t="s">
-        <v>651</v>
+        <v>552</v>
       </c>
       <c r="C81" t="s">
-        <v>674</v>
+        <v>575</v>
       </c>
       <c r="D81" t="s">
-        <v>688</v>
+        <v>589</v>
       </c>
       <c r="E81" t="s">
         <v>453</v>
       </c>
       <c r="F81" t="s">
-        <v>834</v>
+        <v>734</v>
       </c>
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="2" t="s">
-        <v>552</v>
+        <v>472</v>
       </c>
       <c r="B82" t="s">
-        <v>652</v>
+        <v>553</v>
       </c>
       <c r="C82" t="s">
-        <v>672</v>
+        <v>573</v>
       </c>
       <c r="D82" t="s">
-        <v>690</v>
+        <v>591</v>
       </c>
       <c r="E82" t="s">
-        <v>746</v>
+        <v>647</v>
       </c>
       <c r="F82" t="s">
-        <v>835</v>
+        <v>735</v>
       </c>
       <c r="G82" t="s">
-        <v>916</v>
+        <v>815</v>
       </c>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="2" t="s">
-        <v>553</v>
+        <v>472</v>
       </c>
       <c r="B83" t="s">
-        <v>653</v>
+        <v>554</v>
       </c>
       <c r="D83" t="s">
-        <v>693</v>
+        <v>594</v>
       </c>
       <c r="E83" t="s">
         <v>457</v>
       </c>
       <c r="F83" t="s">
-        <v>836</v>
+        <v>736</v>
       </c>
       <c r="G83" t="s">
-        <v>917</v>
+        <v>816</v>
       </c>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="2" t="s">
-        <v>554</v>
+        <v>472</v>
       </c>
       <c r="B84" t="s">
-        <v>654</v>
+        <v>555</v>
       </c>
       <c r="D84" t="s">
+        <v>580</v>
+      </c>
+      <c r="E84" t="s">
+        <v>648</v>
+      </c>
+      <c r="F84" t="s">
         <v>679</v>
       </c>
-      <c r="E84" t="s">
-        <v>747</v>
-      </c>
-      <c r="F84" t="s">
-        <v>837</v>
-      </c>
       <c r="G84" t="s">
-        <v>918</v>
+        <v>817</v>
       </c>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="2" t="s">
-        <v>555</v>
+        <v>472</v>
       </c>
       <c r="B85" t="s">
-        <v>655</v>
+        <v>556</v>
       </c>
       <c r="C85" t="s">
-        <v>676</v>
+        <v>577</v>
       </c>
       <c r="D85" t="s">
-        <v>693</v>
+        <v>594</v>
       </c>
       <c r="E85" t="s">
         <v>419</v>
       </c>
       <c r="F85" t="s">
-        <v>838</v>
+        <v>737</v>
       </c>
     </row>
     <row r="86" spans="1:7">
       <c r="A86" s="2" t="s">
-        <v>556</v>
+        <v>472</v>
       </c>
       <c r="B86" t="s">
-        <v>656</v>
+        <v>557</v>
       </c>
       <c r="D86" t="s">
-        <v>690</v>
+        <v>591</v>
       </c>
       <c r="E86" t="s">
-        <v>748</v>
+        <v>649</v>
       </c>
       <c r="F86" t="s">
-        <v>839</v>
+        <v>738</v>
       </c>
       <c r="G86" t="s">
-        <v>919</v>
+        <v>818</v>
       </c>
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="2" t="s">
-        <v>557</v>
+        <v>472</v>
       </c>
       <c r="B87" t="s">
-        <v>657</v>
+        <v>558</v>
       </c>
       <c r="C87" t="s">
-        <v>674</v>
+        <v>575</v>
       </c>
       <c r="D87" t="s">
-        <v>679</v>
+        <v>580</v>
       </c>
       <c r="E87" t="s">
         <v>442</v>
       </c>
       <c r="F87" t="s">
-        <v>840</v>
+        <v>739</v>
       </c>
       <c r="G87" t="s">
-        <v>920</v>
+        <v>819</v>
       </c>
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="2" t="s">
-        <v>558</v>
+        <v>472</v>
       </c>
       <c r="B88" t="s">
-        <v>658</v>
+        <v>559</v>
       </c>
       <c r="D88" t="s">
-        <v>698</v>
+        <v>599</v>
       </c>
       <c r="E88" t="s">
-        <v>749</v>
+        <v>650</v>
       </c>
       <c r="F88" t="s">
-        <v>841</v>
+        <v>740</v>
       </c>
       <c r="G88" t="s">
-        <v>921</v>
+        <v>820</v>
       </c>
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="2" t="s">
-        <v>559</v>
+        <v>472</v>
       </c>
       <c r="B89" t="s">
-        <v>659</v>
+        <v>560</v>
       </c>
       <c r="C89" t="s">
-        <v>674</v>
+        <v>575</v>
       </c>
       <c r="D89" t="s">
-        <v>690</v>
+        <v>591</v>
       </c>
       <c r="E89" t="s">
-        <v>750</v>
+        <v>651</v>
       </c>
       <c r="F89" t="s">
-        <v>842</v>
+        <v>741</v>
       </c>
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="2" t="s">
-        <v>560</v>
+        <v>472</v>
       </c>
       <c r="B90" t="s">
-        <v>660</v>
+        <v>561</v>
       </c>
       <c r="C90" t="s">
-        <v>675</v>
+        <v>576</v>
       </c>
       <c r="D90" t="s">
-        <v>693</v>
+        <v>594</v>
       </c>
       <c r="E90" t="s">
-        <v>710</v>
+        <v>611</v>
       </c>
       <c r="F90" t="s">
-        <v>843</v>
+        <v>742</v>
       </c>
       <c r="G90" t="s">
-        <v>922</v>
+        <v>821</v>
       </c>
     </row>
     <row r="91" spans="1:7">
       <c r="A91" s="2" t="s">
-        <v>561</v>
+        <v>472</v>
       </c>
       <c r="B91" t="s">
-        <v>661</v>
+        <v>562</v>
       </c>
       <c r="C91" t="s">
-        <v>675</v>
+        <v>576</v>
       </c>
       <c r="D91" t="s">
-        <v>696</v>
+        <v>597</v>
       </c>
       <c r="E91" t="s">
+        <v>644</v>
+      </c>
+      <c r="F91" t="s">
         <v>743</v>
       </c>
-      <c r="F91" t="s">
-        <v>844</v>
-      </c>
       <c r="G91" t="s">
-        <v>923</v>
+        <v>822</v>
       </c>
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="2" t="s">
-        <v>562</v>
+        <v>472</v>
       </c>
       <c r="B92" t="s">
-        <v>662</v>
+        <v>563</v>
       </c>
       <c r="C92" t="s">
-        <v>674</v>
+        <v>575</v>
       </c>
       <c r="D92" t="s">
-        <v>688</v>
+        <v>589</v>
       </c>
       <c r="E92" t="s">
         <v>465</v>
       </c>
       <c r="F92" t="s">
-        <v>845</v>
+        <v>744</v>
       </c>
       <c r="G92" t="s">
-        <v>924</v>
+        <v>823</v>
       </c>
     </row>
     <row r="93" spans="1:7">
       <c r="A93" s="2" t="s">
-        <v>563</v>
+        <v>472</v>
       </c>
       <c r="B93" t="s">
-        <v>663</v>
+        <v>564</v>
       </c>
       <c r="C93" t="s">
-        <v>674</v>
+        <v>575</v>
       </c>
       <c r="D93" t="s">
-        <v>681</v>
+        <v>582</v>
       </c>
       <c r="E93" t="s">
-        <v>751</v>
+        <v>652</v>
       </c>
       <c r="F93" t="s">
-        <v>846</v>
+        <v>745</v>
       </c>
       <c r="G93" t="s">
-        <v>925</v>
+        <v>824</v>
       </c>
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="2" t="s">
-        <v>564</v>
+        <v>472</v>
       </c>
       <c r="B94" t="s">
-        <v>664</v>
+        <v>565</v>
       </c>
       <c r="C94" t="s">
-        <v>674</v>
+        <v>575</v>
       </c>
       <c r="D94" t="s">
-        <v>700</v>
+        <v>601</v>
       </c>
       <c r="E94" t="s">
-        <v>724</v>
+        <v>625</v>
       </c>
       <c r="F94" t="s">
-        <v>847</v>
+        <v>746</v>
       </c>
     </row>
     <row r="95" spans="1:7">
       <c r="A95" s="2" t="s">
-        <v>565</v>
+        <v>472</v>
       </c>
       <c r="B95" t="s">
-        <v>665</v>
+        <v>566</v>
       </c>
       <c r="C95" t="s">
-        <v>672</v>
+        <v>573</v>
       </c>
       <c r="D95" t="s">
-        <v>678</v>
+        <v>579</v>
       </c>
       <c r="E95" t="s">
         <v>440</v>
       </c>
       <c r="F95" t="s">
-        <v>848</v>
+        <v>747</v>
       </c>
       <c r="G95" t="s">
-        <v>926</v>
+        <v>825</v>
       </c>
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="2" t="s">
-        <v>566</v>
+        <v>472</v>
       </c>
       <c r="B96" t="s">
-        <v>666</v>
+        <v>567</v>
       </c>
       <c r="D96" t="s">
-        <v>686</v>
+        <v>587</v>
       </c>
       <c r="E96" t="s">
-        <v>752</v>
+        <v>653</v>
       </c>
       <c r="F96" t="s">
-        <v>849</v>
+        <v>748</v>
       </c>
       <c r="G96" t="s">
-        <v>927</v>
+        <v>826</v>
       </c>
     </row>
     <row r="97" spans="1:7">
       <c r="A97" s="2" t="s">
-        <v>567</v>
+        <v>472</v>
       </c>
       <c r="B97" t="s">
-        <v>667</v>
+        <v>568</v>
       </c>
       <c r="C97" t="s">
-        <v>672</v>
+        <v>573</v>
       </c>
       <c r="D97" t="s">
-        <v>680</v>
+        <v>581</v>
       </c>
       <c r="E97" t="s">
         <v>422</v>
       </c>
       <c r="F97" t="s">
-        <v>850</v>
+        <v>749</v>
       </c>
       <c r="G97" t="s">
-        <v>928</v>
+        <v>827</v>
       </c>
     </row>
     <row r="98" spans="1:7">
       <c r="A98" s="2" t="s">
-        <v>568</v>
+        <v>472</v>
       </c>
       <c r="B98" t="s">
-        <v>668</v>
+        <v>569</v>
       </c>
       <c r="C98" t="s">
-        <v>674</v>
+        <v>575</v>
       </c>
       <c r="D98" t="s">
-        <v>685</v>
+        <v>586</v>
       </c>
       <c r="E98" t="s">
         <v>437</v>
       </c>
       <c r="F98" t="s">
-        <v>851</v>
+        <v>750</v>
       </c>
       <c r="G98" t="s">
-        <v>929</v>
+        <v>828</v>
       </c>
     </row>
     <row r="99" spans="1:7">
       <c r="A99" s="2" t="s">
-        <v>569</v>
+        <v>472</v>
       </c>
       <c r="B99" t="s">
-        <v>669</v>
+        <v>570</v>
       </c>
       <c r="C99" t="s">
-        <v>672</v>
+        <v>573</v>
       </c>
       <c r="D99" t="s">
-        <v>680</v>
+        <v>581</v>
       </c>
       <c r="E99" t="s">
-        <v>753</v>
+        <v>654</v>
       </c>
       <c r="F99" t="s">
-        <v>852</v>
+        <v>751</v>
       </c>
       <c r="G99" t="s">
-        <v>930</v>
+        <v>829</v>
       </c>
     </row>
     <row r="100" spans="1:7">
       <c r="A100" s="2" t="s">
-        <v>570</v>
+        <v>472</v>
       </c>
       <c r="B100" t="s">
-        <v>670</v>
+        <v>571</v>
       </c>
       <c r="D100" t="s">
-        <v>687</v>
+        <v>588</v>
       </c>
       <c r="E100" t="s">
-        <v>754</v>
+        <v>655</v>
       </c>
       <c r="F100" t="s">
-        <v>853</v>
+        <v>752</v>
       </c>
       <c r="G100" t="s">
-        <v>931</v>
+        <v>830</v>
       </c>
     </row>
     <row r="101" spans="1:7">
       <c r="A101" s="2" t="s">
-        <v>571</v>
+        <v>472</v>
       </c>
       <c r="B101" t="s">
-        <v>671</v>
+        <v>572</v>
       </c>
       <c r="C101" t="s">
-        <v>672</v>
+        <v>573</v>
       </c>
       <c r="D101" t="s">
-        <v>701</v>
+        <v>602</v>
       </c>
       <c r="E101" t="s">
-        <v>711</v>
+        <v>612</v>
       </c>
       <c r="F101" t="s">
-        <v>854</v>
+        <v>753</v>
       </c>
       <c r="G101" t="s">
-        <v>932</v>
+        <v>831</v>
       </c>
     </row>
   </sheetData>
